--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B154BF4-832F-954D-A9B4-7F60458C5128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A6D77F-1287-4E60-B9DE-0AB979A49E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -54,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -968,6 +954,10 @@
   </si>
   <si>
     <t>C0002</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,18 +965,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1523,7 +1513,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="286">
@@ -1579,8 +1569,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,14 +1593,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1640,7 +1630,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1742,7 +1732,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1770,7 +1760,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,13 +1813,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1865,7 +1855,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1895,16 +1885,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1925,7 +1915,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1947,10 +1937,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1959,10 +1949,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +1969,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,13 +1981,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2035,7 +2025,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,19 +2069,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2116,7 +2106,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,10 +2118,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2162,13 +2152,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,7 +2167,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2181,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2204,14 +2194,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2407,7 +2397,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2469,7 +2459,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2741,7 +2731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2771,7 +2761,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3583,182 +3573,182 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C5" s="192" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B5" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="268"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="140" t="s">
+      <c r="C9" s="193" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="140" t="s">
         <v>217</v>
-      </c>
-      <c r="C9" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="140" t="s">
-        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>4319334000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="241" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="241" t="s">
-        <v>240</v>
-      </c>
       <c r="C19" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3805,9 +3795,9 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>28591271</v>
@@ -3825,9 +3815,9 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>19879540</v>
@@ -3845,9 +3835,9 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>6277942+1065856</f>
@@ -3867,9 +3857,9 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3883,9 +3873,9 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>59121</v>
@@ -3903,9 +3893,9 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>0</v>
@@ -3923,9 +3913,9 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <f>2962482-3624143</f>
@@ -3945,9 +3935,9 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <f>1021274+85158</f>
@@ -3967,9 +3957,9 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>1078800</v>
@@ -3987,9 +3977,9 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -4003,9 +3993,9 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4019,9 +4009,9 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4035,9 +4025,9 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4051,9 +4041,9 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4067,9 +4057,9 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4083,9 +4073,9 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4099,9 +4089,9 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4115,9 +4105,9 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4131,9 +4121,9 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4147,9 +4137,9 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0.42449999999999999</v>
@@ -4167,17 +4157,17 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6019622093023256E-2</v>
+        <v>6.5503405263955636E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2800145348837216E-2</v>
+        <v>5.2387293491432139E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4216,23 +4206,23 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4240,9 +4230,9 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4250,9 +4240,9 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4261,9 +4251,9 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4271,9 +4261,9 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4281,9 +4271,9 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4292,9 +4282,9 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4302,9 +4292,9 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4313,9 +4303,9 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4323,24 +4313,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4349,9 +4339,9 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4360,9 +4350,9 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4371,9 +4361,9 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4382,9 +4372,9 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4393,9 +4383,9 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4404,9 +4394,9 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4414,33 +4404,33 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4448,12 +4438,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4462,9 +4452,9 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4473,9 +4463,9 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4483,9 +4473,9 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4494,9 +4484,9 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4504,103 +4494,103 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="59"/>
+    </row>
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="59"/>
-    </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="59"/>
+    </row>
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="59"/>
-    </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B75" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="B81" s="86" t="s">
-        <v>67</v>
-      </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4608,32 +4598,32 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4649,9 +4639,9 @@
         <v>28591271</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4670,9 +4660,9 @@
         <v>19879540</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4691,9 +4681,9 @@
         <v>7343798</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4709,9 +4699,9 @@
         <v>59121</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4730,9 +4720,9 @@
         <v>27632</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4748,9 +4738,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4766,9 +4756,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4858,19 +4848,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4879,7 +4869,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4894,9 +4884,9 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4908,15 +4898,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.88</v>
+        <v>6.95</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4925,7 +4915,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4934,9 +4924,9 @@
       <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4945,19 +4935,19 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>29717.017919999998</v>
+        <v>30019.371299999999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4972,7 +4962,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4981,9 +4971,9 @@
       <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4995,53 +4985,53 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5051,32 +5041,32 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5086,52 +5076,52 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.69530102386843873</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5140,155 +5130,155 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>28.903473302138373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29.13125473238534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>9.6644881579416319E-4</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
         <v>1.9081963845829624</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>4.4810180002141216E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6019622093023256E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.5503405263955636E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6561269776898206</v>
+        <v>1.6577268522030906</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1833751468618465</v>
+        <v>3.1864503946129248</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9483846796350832</v>
+        <v>1.9502668849448126</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7681523016189971</v>
+        <v>2.7708264300981957</v>
       </c>
       <c r="H29" s="273"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5296,962 +5286,962 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6326,7 +6316,7 @@
       <selection pane="topRight" activeCell="C42" sqref="C42:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6334,7 +6324,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6342,24 +6332,24 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6367,17 +6357,17 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6396,10 +6386,10 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6410,7 +6400,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6418,10 +6408,10 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6468,10 +6458,10 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6519,10 +6509,10 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6570,10 +6560,10 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6621,10 +6611,10 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6672,10 +6662,10 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6723,10 +6713,10 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6774,10 +6764,10 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6825,10 +6815,10 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6876,10 +6866,10 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6927,10 +6917,10 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6978,10 +6968,10 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7029,10 +7019,10 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7080,10 +7070,10 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7131,10 +7121,10 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7182,10 +7172,10 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7233,10 +7223,10 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7284,10 +7274,10 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7335,10 +7325,10 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7386,10 +7376,10 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7437,10 +7427,10 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7488,10 +7478,10 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7539,10 +7529,10 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7590,10 +7580,10 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7641,10 +7631,10 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7692,10 +7682,10 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7743,10 +7733,10 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7794,10 +7784,10 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7845,10 +7835,10 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7896,10 +7886,10 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7947,10 +7937,10 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7998,10 +7988,10 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8049,10 +8039,10 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8100,10 +8090,10 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8151,10 +8141,10 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8202,10 +8192,10 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8253,10 +8243,10 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8271,10 +8261,10 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8322,10 +8312,10 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8373,10 +8363,10 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8424,10 +8414,10 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8475,10 +8465,10 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8526,10 +8516,10 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8577,10 +8567,10 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8628,10 +8618,10 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8646,10 +8636,10 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8697,10 +8687,10 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8748,10 +8738,10 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8765,10 +8755,10 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8815,10 +8805,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8865,10 +8855,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8915,10 +8905,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -8965,1260 +8955,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10262,7 +10252,7 @@
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10270,14 +10260,14 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10287,12 +10277,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10306,7 +10296,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10314,9 +10304,9 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10330,14 +10320,14 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10345,9 +10335,9 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10361,7 +10351,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10370,9 +10360,9 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10384,7 +10374,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10393,16 +10383,16 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10419,34 +10409,34 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10463,7 +10453,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10472,9 +10462,9 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10491,7 +10481,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10500,9 +10490,9 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10519,7 +10509,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10528,9 +10518,9 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10547,7 +10537,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10556,9 +10546,9 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10575,7 +10565,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10583,9 +10573,9 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10605,9 +10595,9 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10627,9 +10617,9 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10648,9 +10638,9 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10673,9 +10663,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10700,9 +10690,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10721,9 +10711,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10740,25 +10730,25 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10778,9 +10768,9 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10800,16 +10790,16 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10829,7 +10819,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10840,9 +10830,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10862,7 +10852,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10873,9 +10863,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10892,7 +10882,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10903,21 +10893,21 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10933,7 +10923,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10941,9 +10931,9 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10960,7 +10950,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10968,9 +10958,9 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10987,7 +10977,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10995,9 +10985,9 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11017,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11025,9 +11015,9 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11044,7 +11034,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11052,9 +11042,9 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11078,9 +11068,9 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11105,9 +11095,9 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11132,9 +11122,9 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11153,9 +11143,9 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11174,9 +11164,9 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11195,9 +11185,9 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11216,9 +11206,9 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11235,14 +11225,14 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11251,9 +11241,9 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11270,9 +11260,9 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11289,9 +11279,9 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11308,7 +11298,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11319,9 +11309,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11338,7 +11328,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11349,9 +11339,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11368,7 +11358,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11376,9 +11366,9 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11395,7 +11385,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11403,22 +11393,22 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11430,12 +11420,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11454,7 +11444,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11463,9 +11453,9 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11474,9 +11464,9 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11489,9 +11479,9 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11502,12 +11492,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="20" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11520,7 +11510,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11529,13 +11519,13 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11543,9 +11533,9 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11564,9 +11554,9 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11585,9 +11575,9 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11606,9 +11596,9 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11621,9 +11611,9 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11642,7 +11632,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11652,13 +11642,13 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11666,9 +11656,9 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11687,9 +11677,9 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11702,9 +11692,9 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11723,10 +11713,10 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11734,39 +11724,39 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11785,9 +11775,9 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11815,9 +11805,9 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11836,9 +11826,9 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11866,9 +11856,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11896,9 +11886,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11927,9 +11917,9 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11956,12 +11946,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11989,9 +11979,9 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12019,9 +12009,9 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12049,9 +12039,9 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12070,9 +12060,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12101,9 +12091,9 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12122,30 +12112,30 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4597918026897365E-2</v>
+        <v>3.4327391977671859E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4597918026897365E-2</v>
+        <v>3.4327391977671859E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4597918026897365E-2</v>
+        <v>3.4327391977671859E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12173,32 +12163,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6019622093023256E-2</v>
+        <v>6.5503405263955636E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6019622093023256E-2</v>
+        <v>6.5503405263955636E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6019622093023256E-2</v>
+        <v>6.5503405263955636E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12206,32 +12196,32 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -12245,24 +12235,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.9188975293989086</v>
+        <v>3.922683316576983</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>3.9188975293989086</v>
+        <v>3.922683316576983</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12270,26 +12260,26 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.6847029734840433</v>
+        <v>8.6834117745061317</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.6847029734840433</v>
+        <v>8.6834117745061317</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12300,51 +12290,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8415724.1918269228</v>
+        <v>8423854.0652162172</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9483846796350834</v>
+        <v>1.9502668849448126</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.9483846796350834</v>
+        <v>1.9502668849448126</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7681523016189971</v>
+        <v>2.7708264300981957</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12360,9 +12350,9 @@
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12381,164 +12371,164 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8415724.1918269228</v>
+        <v>8423854.0652162172</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6561269776898206</v>
+        <v>1.6577268522030906</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.9483846796350834</v>
+        <v>1.9502668849448126</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9483846796350832</v>
+        <v>1.9502668849448126</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9483846796350832</v>
+        <v>1.9502668849448126</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.7681523016189971</v>
+        <v>2.7708264300981957</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18650159.736121327</v>
+        <v>18647386.921983335</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6701574306833251</v>
+        <v>3.6696117697047352</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3178322713921471</v>
+        <v>4.3171903172996888</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3178322713921471</v>
+        <v>4.3171903172996888</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3178322713921471</v>
+        <v>4.3171903172996888</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.1345264438732627</v>
+        <v>6.1336143926150353</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13532941.963974126</v>
+        <v>13535620.493599776</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6631422041865731</v>
+        <v>2.6636693109539129</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1331084755136152</v>
+        <v>3.1337286011222507</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1331084755136152</v>
+        <v>3.1337286011222507</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1331084755136152</v>
+        <v>3.1337286011222507</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4513393727461299</v>
+        <v>4.4522204113566151</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A6D77F-1287-4E60-B9DE-0AB979A49E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F988121B-4547-48B4-8704-F1B7D2204158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -947,13 +947,13 @@
     <t>统一中国</t>
   </si>
   <si>
+    <t>C0002</t>
+  </si>
+  <si>
     <t>CNY</t>
   </si>
   <si>
     <t>CN</t>
-  </si>
-  <si>
-    <t>C0002</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3569,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3632,7 +3632,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3648,7 +3648,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3680,7 +3680,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5503405263955636E-2</v>
+        <v>6.5219844446482836E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2387293491432139E-2</v>
+        <v>5.2160511636233038E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4844,8 +4844,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.95</v>
+        <v>6.98</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>30019.371299999999</v>
+        <v>30148.95132</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4988,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>29.13125473238534</v>
+        <v>29.257910698464837</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5503405263955636E-2</v>
+        <v>6.5219844446482836E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6577268522030906</v>
+        <v>1.6564848720267427</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1864503946129248</v>
+        <v>3.1840630844129567</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9502668849448126</v>
+        <v>1.948805731796168</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7708264300981957</v>
+        <v>2.76875050818518</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -6310,10 +6310,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C42" sqref="C42:C44"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10248,7 +10248,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
@@ -12118,17 +12118,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4327391977671859E-2</v>
+        <v>3.4178790492120477E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4327391977671859E-2</v>
+        <v>3.4178790492120477E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4327391977671859E-2</v>
+        <v>3.4178790492120477E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5503405263955636E-2</v>
+        <v>6.5219844446482836E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5503405263955636E-2</v>
+        <v>6.5219844446482836E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5503405263955636E-2</v>
+        <v>6.5219844446482836E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12239,14 +12239,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.922683316576983</v>
+        <v>3.9197444156894186</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>3.922683316576983</v>
+        <v>3.9197444156894186</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12264,14 +12264,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.6834117745061317</v>
+        <v>8.6715938234729926</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.6834117745061317</v>
+        <v>8.6715938234729926</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12314,21 +12314,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8423854.0652162172</v>
+        <v>8417542.8567420691</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9502668849448126</v>
+        <v>1.948805731796168</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.9502668849448126</v>
+        <v>1.948805731796168</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7708264300981957</v>
+        <v>2.76875050818518</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12377,27 +12377,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8423854.0652162172</v>
+        <v>8417542.8567420691</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6577268522030906</v>
+        <v>1.6564848720267427</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.9502668849448126</v>
+        <v>1.948805731796168</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9502668849448126</v>
+        <v>1.948805731796168</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9502668849448126</v>
+        <v>1.948805731796168</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.7708264300981957</v>
+        <v>2.76875050818518</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12438,27 +12438,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18647386.921983335</v>
+        <v>18622008.198589493</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6696117697047352</v>
+        <v>3.6646175009390496</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3171903172996888</v>
+        <v>4.3113147069871172</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3171903172996888</v>
+        <v>4.3113147069871172</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3171903172996888</v>
+        <v>4.3113147069871172</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.1336143926150353</v>
+        <v>6.1252666651974668</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12499,27 +12499,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13535620.493599776</v>
+        <v>13519775.527665781</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6636693109539129</v>
+        <v>2.6605511864828961</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1337286011222507</v>
+        <v>3.1300602193916425</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1337286011222507</v>
+        <v>3.1300602193916425</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1337286011222507</v>
+        <v>3.1300602193916425</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4522204113566151</v>
+        <v>4.4470085866913234</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F988121B-4547-48B4-8704-F1B7D2204158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{597776EA-8ED2-4534-B3F8-5A942C995671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5219844446482836E-2</v>
+        <v>6.5413357942611328E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2160511636233038E-2</v>
+        <v>5.2315276846917662E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>30148.95132</v>
+        <v>30062.564640000001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4988,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>29.257910698464837</v>
+        <v>29.171356502704967</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5219844446482836E-2</v>
+        <v>6.5413357942611328E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6564848720267427</v>
+        <v>1.6574517734788097</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1840630844129567</v>
+        <v>3.18592164362577</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.948805731796168</v>
+        <v>1.9499432629162468</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.76875050818518</v>
+        <v>2.7703666466311048</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12118,17 +12118,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4178790492120477E-2</v>
+        <v>3.4280202221904671E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4178790492120477E-2</v>
+        <v>3.4280202221904671E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4178790492120477E-2</v>
+        <v>3.4280202221904671E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5219844446482836E-2</v>
+        <v>6.5413357942611328E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5219844446482836E-2</v>
+        <v>6.5413357942611328E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5219844446482836E-2</v>
+        <v>6.5413357942611328E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12239,14 +12239,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.9197444156894186</v>
+        <v>3.922032397083794</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>3.9197444156894186</v>
+        <v>3.922032397083794</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12264,14 +12264,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.6715938234729926</v>
+        <v>8.6802828082335726</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.6715938234729926</v>
+        <v>8.6802828082335726</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12314,21 +12314,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8417542.8567420691</v>
+        <v>8422456.2335850839</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.948805731796168</v>
+        <v>1.9499432629162468</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.948805731796168</v>
+        <v>1.9499432629162468</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.76875050818518</v>
+        <v>2.7703666466311048</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12377,27 +12377,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8417542.8567420691</v>
+        <v>8422456.2335850839</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6564848720267427</v>
+        <v>1.6574517734788097</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.948805731796168</v>
+        <v>1.9499432629162468</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.948805731796168</v>
+        <v>1.9499432629162468</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.948805731796168</v>
+        <v>1.9499432629162468</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.76875050818518</v>
+        <v>2.7703666466311048</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12438,27 +12438,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18622008.198589493</v>
+        <v>18640667.553345129</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6646175009390496</v>
+        <v>3.6682894678539233</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3113147069871172</v>
+        <v>4.3156346680634394</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3113147069871172</v>
+        <v>4.3156346680634394</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3113147069871172</v>
+        <v>4.3156346680634394</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.1252666651974668</v>
+        <v>6.1314042161243014</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12499,27 +12499,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13519775.527665781</v>
+        <v>13531561.893465107</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6605511864828961</v>
+        <v>2.6628706206663666</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1300602193916425</v>
+        <v>3.1327889654898433</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1300602193916425</v>
+        <v>3.1327889654898433</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1300602193916425</v>
+        <v>3.1327889654898433</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4470085866913234</v>
+        <v>4.4508854313777029</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{597776EA-8ED2-4534-B3F8-5A942C995671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C00E0542-38BA-4788-B485-9F623241550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5413357942611328E-2</v>
+        <v>6.5411324559272011E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2315276846917662E-2</v>
+        <v>5.2313650619252888E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4988,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>29.171356502704967</v>
+        <v>29.1722633265722</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5413357942611328E-2</v>
+        <v>6.5411324559272011E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6574517734788097</v>
+        <v>1.657391713392298</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.18592164362577</v>
+        <v>3.1858061972926719</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9499432629162468</v>
+        <v>1.9498726039909389</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7703666466311048</v>
+        <v>2.7702662585153672</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12118,17 +12118,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4280202221904671E-2</v>
+        <v>3.4279136617045687E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4280202221904671E-2</v>
+        <v>3.4279136617045687E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4280202221904671E-2</v>
+        <v>3.4279136617045687E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5413357942611328E-2</v>
+        <v>6.5411324559272011E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5413357942611328E-2</v>
+        <v>6.5411324559272011E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5413357942611328E-2</v>
+        <v>6.5411324559272011E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12239,14 +12239,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.922032397083794</v>
+        <v>3.9218902767465149</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>3.922032397083794</v>
+        <v>3.9218902767465149</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12264,14 +12264,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.6802828082335726</v>
+        <v>8.6799301500175332</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.6802828082335726</v>
+        <v>8.6799301500175332</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12314,21 +12314,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8422456.2335850839</v>
+        <v>8422151.0340865981</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9499432629162468</v>
+        <v>1.9498726039909389</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.9499432629162468</v>
+        <v>1.9498726039909389</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7703666466311048</v>
+        <v>2.7702662585153672</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12377,27 +12377,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8422456.2335850839</v>
+        <v>8422151.0340865981</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6574517734788097</v>
+        <v>1.657391713392298</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.9499432629162468</v>
+        <v>1.9498726039909389</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9499432629162468</v>
+        <v>1.9498726039909389</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9499432629162468</v>
+        <v>1.9498726039909389</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.7703666466311048</v>
+        <v>2.7702662585153672</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12438,27 +12438,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18640667.553345129</v>
+        <v>18639910.229567736</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6682894678539233</v>
+        <v>3.6681404344124759</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3156346680634394</v>
+        <v>4.3154593346029131</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3156346680634394</v>
+        <v>4.3154593346029131</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3156346680634394</v>
+        <v>4.3154593346029131</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.1314042161243014</v>
+        <v>6.13115511248097</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12499,27 +12499,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13531561.893465107</v>
+        <v>13531030.63182717</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6628706206663666</v>
+        <v>2.6627660739023868</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1327889654898433</v>
+        <v>3.1326659692969261</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1327889654898433</v>
+        <v>3.1326659692969261</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1327889654898433</v>
+        <v>3.1326659692969261</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4508854313777029</v>
+        <v>4.4507106854981684</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C00E0542-38BA-4788-B485-9F623241550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E6F9EA-8544-4242-9E0F-D10285E152AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5411324559272011E-2</v>
+        <v>6.5409291175932721E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2313650619252888E-2</v>
+        <v>5.2312024391588129E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4600,7 +4600,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4988,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>29.1722633265722</v>
+        <v>29.173170206820426</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5411324559272011E-2</v>
+        <v>6.5409291175932721E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.657391713392298</v>
+        <v>1.6573316538717955</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1858061972926719</v>
+        <v>3.1856907520475457</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9498726039909389</v>
+        <v>1.9498019457315241</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7702662585153672</v>
+        <v>2.770165871345692</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12118,17 +12118,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4279136617045687E-2</v>
+        <v>3.4278071012186703E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4279136617045687E-2</v>
+        <v>3.4278071012186703E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4279136617045687E-2</v>
+        <v>3.4278071012186703E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5411324559272011E-2</v>
+        <v>6.5409291175932721E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5411324559272011E-2</v>
+        <v>6.5409291175932721E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5411324559272011E-2</v>
+        <v>6.5409291175932721E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12239,14 +12239,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.9218902767465149</v>
+        <v>3.9217481577485853</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>3.9218902767465149</v>
+        <v>3.9217481577485853</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12264,14 +12264,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.6799301500175332</v>
+        <v>8.6795774975835691</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.6799301500175332</v>
+        <v>8.6795774975835691</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12314,21 +12314,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8422151.0340865981</v>
+        <v>8421845.837464327</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9498726039909389</v>
+        <v>1.9498019457315243</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.9498726039909389</v>
+        <v>1.9498019457315243</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7702662585153672</v>
+        <v>2.770165871345692</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12377,27 +12377,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8422151.0340865981</v>
+        <v>8421845.837464327</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.657391713392298</v>
+        <v>1.6573316538717955</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.9498726039909389</v>
+        <v>1.9498019457315243</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9498726039909389</v>
+        <v>1.9498019457315241</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9498726039909389</v>
+        <v>1.9498019457315241</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.7702662585153672</v>
+        <v>2.770165871345692</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12438,27 +12438,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18639910.229567736</v>
+        <v>18639152.918207195</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6681404344124759</v>
+        <v>3.6679914034145344</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3154593346029131</v>
+        <v>4.3152840040170997</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3154593346029131</v>
+        <v>4.3152840040170997</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3154593346029131</v>
+        <v>4.3152840040170997</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.13115511248097</v>
+        <v>6.1309060129218658</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12499,27 +12499,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13531030.63182717</v>
+        <v>13530499.37783576</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6627660739023868</v>
+        <v>2.6626615286431647</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1326659692969261</v>
+        <v>3.1325429748743119</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1326659692969261</v>
+        <v>3.1325429748743119</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1326659692969261</v>
+        <v>3.1325429748743119</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4507106854981684</v>
+        <v>4.4505359421337793</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E6F9EA-8544-4242-9E0F-D10285E152AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9713862-4ADF-47F4-97D0-569670C001BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5409291175932721E-2</v>
+        <v>6.5407257792593418E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2312024391588129E-2</v>
+        <v>5.2310398163923369E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4988,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5037,7 +5037,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5084,7 +5084,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>29.173170206820426</v>
+        <v>29.174077143454905</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5409291175932721E-2</v>
+        <v>6.5407257792593418E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6573316538717955</v>
+        <v>1.7293268816528373</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1856907520475457</v>
+        <v>3.3709839349601411</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9498019457315241</v>
+        <v>2.0345022137092204</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.770165871345692</v>
+        <v>2.9312903782262101</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12118,17 +12118,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4278071012186703E-2</v>
+        <v>3.4277005407327726E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4278071012186703E-2</v>
+        <v>3.4277005407327726E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4278071012186703E-2</v>
+        <v>3.4277005407327726E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5409291175932721E-2</v>
+        <v>6.5407257792593418E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5409291175932721E-2</v>
+        <v>6.5407257792593418E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5409291175932721E-2</v>
+        <v>6.5407257792593418E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12239,14 +12239,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.9217481577485853</v>
+        <v>4.0921106505287002</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>3.9217481577485853</v>
+        <v>4.0921106505287002</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12264,14 +12264,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.6795774975835691</v>
+        <v>9.0565824531460244</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.6795774975835691</v>
+        <v>9.0565824531460244</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12314,21 +12314,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8421845.837464327</v>
+        <v>8787694.5847495031</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9498019457315243</v>
+        <v>2.0345022137092204</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.9498019457315243</v>
+        <v>2.0345022137092204</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.770165871345692</v>
+        <v>2.9312903782262101</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12377,27 +12377,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8421845.837464327</v>
+        <v>8787694.5847495031</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6573316538717955</v>
+        <v>1.7293268816528373</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.9498019457315243</v>
+        <v>2.0345022137092204</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9498019457315241</v>
+        <v>2.0345022137092204</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9498019457315241</v>
+        <v>2.0345022137092204</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.770165871345692</v>
+        <v>2.9312903782262101</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12438,27 +12438,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18639152.918207195</v>
+        <v>19448760.646187834</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6679914034145344</v>
+        <v>3.8273137824626802</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3152840040170997</v>
+        <v>4.5027220970149182</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3152840040170997</v>
+        <v>4.5027220970149182</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3152840040170997</v>
+        <v>4.5027220970149182</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.1309060129218658</v>
+        <v>6.4874768235041094</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12499,27 +12499,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13530499.37783576</v>
+        <v>14118227.615468668</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6626615286431647</v>
+        <v>2.778320332057759</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1325429748743119</v>
+        <v>3.2686121553620691</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1325429748743119</v>
+        <v>3.2686121553620691</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1325429748743119</v>
+        <v>3.2686121553620691</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4505359421337793</v>
+        <v>4.7093836008651593</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9713862-4ADF-47F4-97D0-569670C001BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F348FB-8806-4D6B-A459-EFAC21D317A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45624</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>4319334000</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,409 +3803,409 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>28591271</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>28257432</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>19879540</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>20069515</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>6277942+1065856</f>
         <v>7343798</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>5886596+1041026</f>
         <v>6927622</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>59121</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>60526</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
-        <v>0</v>
-      </c>
-      <c r="D30" s="151">
-        <v>0</v>
-      </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="C30" s="150">
+        <v>0</v>
+      </c>
+      <c r="D30" s="150">
+        <v>0</v>
+      </c>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <f>2962482-3624143</f>
         <v>-661661</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <f>2869480-2055079</f>
         <v>814401</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <f>1021274+85158</f>
         <v>1106432</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <f>1023585+92256</f>
         <v>1115841</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>1078800</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>545900</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.42449999999999999</v>
       </c>
-      <c r="D44" s="251">
+      <c r="D44" s="250">
         <v>0.33950000000000002</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5407257792593418E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>6.3968589897732533E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2310398163923369E-2</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>5.11598027568438E-2</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4210,10 +4214,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4312,7 +4316,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4324,7 +4328,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4344,7 +4348,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4412,7 +4416,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4424,7 +4428,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4437,7 +4441,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4485,14 +4489,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4576,7 +4580,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4584,19 +4588,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4610,14 +4615,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4629,12 +4634,12 @@
         <f>C25</f>
         <v>28591271</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>28591271</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>28591271</v>
       </c>
@@ -4647,15 +4652,15 @@
         <f>C26</f>
         <v>19879540</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>19879540</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>19879540</v>
       </c>
@@ -4668,15 +4673,15 @@
         <f>C27+C28</f>
         <v>7343798</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>7343798</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>7343798</v>
       </c>
@@ -4689,12 +4694,12 @@
         <f>C29</f>
         <v>59121</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>59121</v>
       </c>
@@ -4707,15 +4712,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>27632</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>27632</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>27632</v>
       </c>
@@ -4728,12 +4733,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4746,12 +4751,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4760,16 +4765,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.42449999999999999</v>
       </c>
@@ -4888,17 +4893,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.96</v>
+        <v>7.11</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4908,40 +4913,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>4319334000</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30062.564640000001</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>30710.464739999999</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4949,11 +4954,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4964,22 +4969,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5008,7 +5013,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5019,7 +5024,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5033,11 +5038,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5046,7 +5051,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5057,7 +5062,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5068,10 +5073,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5083,10 +5088,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5108,14 +5113,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.69530102386843873</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5123,7 +5128,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.25685454836897598</v>
       </c>
@@ -5134,7 +5139,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5146,14 +5151,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5162,30 +5167,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>29.174077143454905</v>
+        <v>29.830208663871169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>9.6644881579416319E-4</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>1.9081963845829624</v>
       </c>
@@ -5194,16 +5199,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.4810180002141216E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5407257792593418E-2</v>
+        <v>6.3968589897732533E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5222,10 +5227,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5233,22 +5238,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7293268816528373</v>
+        <v>1.6497244124509174</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.3709839349601411</v>
+        <v>3.1710682601724467</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0345022137092204</v>
-      </c>
-      <c r="G29" s="273">
+        <v>1.9408522499422558</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.9312903782262101</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>2.7574506610195191</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5260,17 +5265,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5280,7 +5285,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5288,17 +5293,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5308,24 +5313,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5335,7 +5340,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5354,10 +5359,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6339,16 +6344,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6362,11 +6367,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6399,7 +6404,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6463,47 +6468,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>28591271</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>28257432</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6565,47 +6570,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>19879540</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>20069515</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6616,47 +6621,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>8711731</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>8187917</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6667,47 +6672,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>7343798</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>6927622</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6718,47 +6723,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6769,47 +6774,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6817,50 +6822,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>4.4600478911176356E-2</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6868,50 +6873,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1367933</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1260295</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6919,50 +6924,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>8.5406988046449445E-2</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6973,47 +6978,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-661661</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>814401</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7024,47 +7029,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>59121</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>60526</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7075,47 +7080,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.8698244649564548E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>3.9488407863814377E-2</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7126,47 +7131,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>1106432</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>1115841</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7177,47 +7182,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>3.7731795833770385E-2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>1.9318811419240078E-2</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7228,47 +7233,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>1078800</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>545900</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7279,47 +7284,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1281180</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-184573</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7330,47 +7335,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-4.8988793461486524E-3</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7381,7 +7386,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>960885</v>
       </c>
@@ -7429,50 +7434,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234" t="str">
+      <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7589,43 +7594,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7640,43 +7645,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7691,43 +7696,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7742,43 +7747,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7793,43 +7798,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7844,43 +7849,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7895,43 +7900,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7997,43 +8002,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8048,43 +8053,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8099,43 +8104,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8197,47 +8202,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8266,47 +8271,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.71023846045174943</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8317,47 +8322,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.24516106063707416</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8368,47 +8373,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>2.882077182385151E-2</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8419,47 +8424,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>2.1419497709487543E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8470,47 +8475,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8521,47 +8526,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>2.0169596444574299E-2</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8572,47 +8577,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-6.5318391281982031E-3</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8641,47 +8646,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8692,47 +8697,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8760,47 +8765,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8810,47 +8815,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8860,47 +8865,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>4.6145740645342576E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>-0.32792445265558884</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8910,47 +8915,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10248,8 +10253,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10298,7 +10303,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10395,7 +10400,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10442,7 +10447,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10470,7 +10475,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10498,7 +10503,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10526,7 +10531,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10539,7 +10544,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10554,7 +10559,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10581,7 +10586,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10603,7 +10608,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10625,7 +10630,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10646,7 +10651,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10671,7 +10676,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10698,7 +10703,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10719,7 +10724,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10884,7 +10889,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10913,7 +10918,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10939,7 +10944,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10966,7 +10971,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10993,7 +10998,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11009,7 +11014,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11023,7 +11028,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11050,7 +11055,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11076,7 +11081,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11103,7 +11108,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11130,7 +11135,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11151,7 +11156,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11172,7 +11177,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11193,7 +11198,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11214,7 +11219,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11360,7 +11365,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11469,11 +11474,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11484,11 +11489,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11500,11 +11505,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11600,8 +11605,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11681,8 +11686,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11718,19 +11723,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11740,18 +11745,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11762,17 +11767,17 @@
         <f>Data!C6</f>
         <v>28591271</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>28591271</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>28591271</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11783,23 +11788,23 @@
         <f>Data!C8</f>
         <v>19879540</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>19879540</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>19879540</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.69530102386843873</v>
       </c>
@@ -11809,21 +11814,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>8711731</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>8711731</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>8711731</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11834,23 +11839,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>7343798</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>7343798</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>7343798</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.25685454836897598</v>
       </c>
@@ -11864,54 +11869,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>1367933</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>1367933</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>1367933</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>4.7844427762585302E-2</v>
       </c>
@@ -11925,27 +11930,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11957,23 +11962,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>59121</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>59121</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>59121</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>2.0677989446499247E-3</v>
       </c>
@@ -11987,23 +11992,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>27632</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>27632</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>27632</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>9.6644881579416319E-4</v>
       </c>
@@ -12013,27 +12018,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>1281180</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>1281180</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>1281180</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>4.4810180002141216E-2</v>
       </c>
@@ -12043,49 +12048,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>960885</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>960885</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>960885</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>3.3607635001605907E-2</v>
       </c>
@@ -12095,69 +12100,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4277005407327726E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>3.3523064195362107E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4277005407327726E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>3.3523064195362107E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4277005407327726E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>3.3523064195362107E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>1.9081963845829624</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>1.9081963845829624</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>1.9081963845829624</v>
       </c>
@@ -12167,21 +12172,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5407257792593418E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>6.3968589897732533E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5407257792593418E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.3968589897732533E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5407257792593418E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>6.3968589897732533E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12203,22 +12208,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12228,9 +12233,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12238,15 +12243,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.0921106505287002</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>3.9037471227969016</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.0921106505287002</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>3.9037471227969016</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12254,24 +12259,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>9.0565824531460244</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>8.6128704923310178</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>9.0565824531460244</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>8.6128704923310178</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12292,14 +12300,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12314,21 +12322,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8787694.5847495031</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>8383189.1121520838</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0345022137092204</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>1.9408522499422558</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0345022137092204</v>
+        <v>1.9408522499422558</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9312903782262101</v>
+        <v>2.7574506610195191</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12340,14 +12348,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12358,17 +12366,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12377,27 +12385,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8787694.5847495031</v>
+        <v>8383189.1121520838</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7293268816528373</v>
+        <v>1.6497244124509174</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.0345022137092204</v>
+        <v>1.9408522499422558</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.0345022137092204</v>
+        <v>1.9408522499422558</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0345022137092204</v>
+        <v>1.9408522499422558</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.9312903782262101</v>
+        <v>2.7574506610195191</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12416,14 +12424,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12438,27 +12446,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19448760.646187834</v>
+        <v>18495901.467089429</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8273137824626802</v>
+        <v>3.639801007985493</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5027220970149182</v>
+        <v>4.2821188329241098</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5027220970149182</v>
+        <v>4.2821188329241098</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5027220970149182</v>
+        <v>4.2821188329241098</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.4874768235041094</v>
+        <v>6.0837868553683165</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12477,14 +12485,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12499,27 +12507,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14118227.615468668</v>
+        <v>13439545.289620753</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.778320332057759</v>
+        <v>2.6447627102182052</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.2686121553620691</v>
+        <v>3.1114855414331828</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.2686121553620691</v>
+        <v>3.1114855414331828</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.2686121553620691</v>
+        <v>3.1114855414331828</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.7093836008651593</v>
+        <v>4.4206187581939176</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F348FB-8806-4D6B-A459-EFAC21D317A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00482E53-AD19-4FF8-A343-D579444E576F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,7 +3574,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3968589897732533E-2</v>
+        <v>6.3743801456823762E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.11598027568438E-2</v>
+        <v>5.0980024957813126E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4591,7 +4591,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4903,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.11</v>
+        <v>7.12</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4944,7 +4946,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30710.464739999999</v>
+        <v>30753.658080000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4993,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5039,10 +5041,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5089,7 +5091,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5176,7 +5178,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>29.830208663871169</v>
+        <v>29.935402987778509</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5208,7 +5210,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3968589897732533E-2</v>
+        <v>6.3743801456823762E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5238,20 +5240,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6497244124509174</v>
+        <v>1.6453013597005883</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1710682601724467</v>
+        <v>2.8833700374908804</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9408522499422558</v>
+        <v>1.9356486584712804</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7574506610195191</v>
+        <v>2.507278293470331</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12123,17 +12125,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3523064195362107E-2</v>
+        <v>3.3405262672036251E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3523064195362107E-2</v>
+        <v>3.3405262672036251E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3523064195362107E-2</v>
+        <v>3.3405262672036251E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12174,17 +12176,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3968589897732533E-2</v>
+        <v>6.3743801456823762E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3968589897732533E-2</v>
+        <v>6.3743801456823762E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3968589897732533E-2</v>
+        <v>6.3743801456823762E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12233,7 +12235,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12244,14 +12246,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9037471227969016</v>
+        <v>3.8932808416909412</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9037471227969016</v>
+        <v>3.8932808416909412</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12265,21 +12267,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6128704923310178</v>
+        <v>8.5856003565110335</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6128704923310178</v>
+        <v>8.5856003565110335</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12322,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8383189.1121520838</v>
+        <v>8360713.0625893902</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9408522499422558</v>
+        <v>1.9356486584712804</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.9408522499422558</v>
+        <v>1.9356486584712804</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7574506610195191</v>
+        <v>2.507278293470331</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12385,27 +12387,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8383189.1121520838</v>
+        <v>8360713.0625893902</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6497244124509174</v>
+        <v>1.6453013597005883</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.9408522499422558</v>
+        <v>1.9356486584712804</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9408522499422558</v>
+        <v>1.9356486584712804</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9408522499422558</v>
+        <v>1.9356486584712804</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.7574506610195191</v>
+        <v>2.507278293470331</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12446,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18495901.467089429</v>
+        <v>18437339.603704896</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.639801007985493</v>
+        <v>3.6282766424520907</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.2821188329241098</v>
+        <v>4.2685607558259893</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.2821188329241098</v>
+        <v>4.2685607558259893</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.2821188329241098</v>
+        <v>4.2685607558259893</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0837868553683165</v>
+        <v>5.5291386071552449</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12507,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13439545.289620753</v>
+        <v>13399026.333147142</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6447627102182052</v>
+        <v>2.6367890010763393</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1114855414331828</v>
+        <v>3.102104707148635</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1114855414331828</v>
+        <v>3.102104707148635</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1114855414331828</v>
+        <v>3.102104707148635</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4206187581939176</v>
+        <v>4.0182084503127875</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00482E53-AD19-4FF8-A343-D579444E576F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{887F0289-2DFD-4770-A1A8-4116B70752EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3743801456823762E-2</v>
+        <v>6.3120889655417858E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0980024957813126E-2</v>
+        <v>5.0481842256806513E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.12</v>
+        <v>7.2</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30753.658080000001</v>
+        <v>31099.2048</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4995,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>29.935402987778509</v>
+        <v>30.230822078078493</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3743801456823762E-2</v>
+        <v>6.3120889655417858E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6453013597005883</v>
+        <v>1.6449286359389215</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.8833700374908804</v>
+        <v>2.8827168437642032</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9356486584712804</v>
+        <v>1.935210159928143</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.507278293470331</v>
+        <v>2.5067102989253942</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12125,17 +12125,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3405262672036251E-2</v>
+        <v>3.3078822581048425E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3405262672036251E-2</v>
+        <v>3.3078822581048425E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3405262672036251E-2</v>
+        <v>3.3078822581048425E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12176,17 +12176,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3743801456823762E-2</v>
+        <v>6.3120889655417858E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3743801456823762E-2</v>
+        <v>6.3120889655417858E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3743801456823762E-2</v>
+        <v>6.3120889655417858E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12246,14 +12246,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8932808416909412</v>
+        <v>3.8923988644944938</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8932808416909412</v>
+        <v>3.8923988644944938</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12274,14 +12274,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5856003565110335</v>
+        <v>8.5720830620234967</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5856003565110335</v>
+        <v>8.5720830620234967</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8360713.0625893902</v>
+        <v>8358819.0409230664</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9356486584712804</v>
+        <v>1.935210159928143</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.9356486584712804</v>
+        <v>1.935210159928143</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.507278293470331</v>
+        <v>2.5067102989253942</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12387,27 +12387,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8360713.0625893902</v>
+        <v>8358819.0409230664</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6453013597005883</v>
+        <v>1.6449286359389215</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.9356486584712804</v>
+        <v>1.935210159928143</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9356486584712804</v>
+        <v>1.935210159928143</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9356486584712804</v>
+        <v>1.935210159928143</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.507278293470331</v>
+        <v>2.5067102989253942</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12448,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18437339.603704896</v>
+        <v>18408311.587184068</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6282766424520907</v>
+        <v>3.6225642307602186</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.2685607558259893</v>
+        <v>4.26184027148261</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.2685607558259893</v>
+        <v>4.26184027148261</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.2685607558259893</v>
+        <v>4.26184027148261</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.5291386071552449</v>
+        <v>5.5204334506476229</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13399026.333147142</v>
+        <v>13383565.314053567</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6367890010763393</v>
+        <v>2.6337464333495699</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.102104707148635</v>
+        <v>3.0985252157053766</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.102104707148635</v>
+        <v>3.0985252157053766</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.102104707148635</v>
+        <v>3.0985252157053766</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.0182084503127875</v>
+        <v>4.0135718747865088</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887F0289-2DFD-4770-A1A8-4116B70752EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C748E48-EF8E-491A-BA5F-CE971E9638FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0220.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3574,7 +3582,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3603,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3603,7 +3611,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3636,7 +3644,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3652,7 +3660,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3684,7 +3692,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4167,11 +4175,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3120889655417858E-2</v>
+        <v>5.9984946659812827E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0481842256806513E-2</v>
+        <v>4.7973826598366208E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4288,7 +4296,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4400,7 +4408,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4905,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.2</v>
+        <v>7.58</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4946,7 +4954,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31099.2048</v>
+        <v>32740.551719999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4995,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5041,10 +5049,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5091,7 +5099,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5178,7 +5186,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>30.230822078078493</v>
+        <v>31.811254170229461</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5210,7 +5218,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3120889655417858E-2</v>
+        <v>5.9984946659812827E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5240,20 +5248,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6449286359389215</v>
+        <v>1.9430007147405448</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.8827168437642032</v>
+        <v>3.5901882454144478</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.935210159928143</v>
+        <v>2.2858831938124058</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.5067102989253942</v>
+        <v>3.12190282209952</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12125,17 +12133,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3078822581048425E-2</v>
+        <v>3.1435415738366244E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3078822581048425E-2</v>
+        <v>3.1435415738366244E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3078822581048425E-2</v>
+        <v>3.1435415738366244E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12176,17 +12184,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3120889655417858E-2</v>
+        <v>5.9984946659812827E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3120889655417858E-2</v>
+        <v>5.9984946659812827E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3120889655417858E-2</v>
+        <v>5.9984946659812827E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12235,7 +12243,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12246,14 +12254,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8923988644944938</v>
+        <v>4.5977275916600364</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8923988644944938</v>
+        <v>4.5977275916600364</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12274,14 +12282,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5720830620234967</v>
+        <v>10.056679193758699</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5720830620234967</v>
+        <v>10.056679193758699</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,21 +12332,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8358819.0409230664</v>
+        <v>9873492.9990625139</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.935210159928143</v>
+        <v>2.2858831938124058</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.935210159928143</v>
+        <v>2.2858831938124058</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.5067102989253942</v>
+        <v>3.12190282209952</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12387,27 +12395,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8358819.0409230664</v>
+        <v>9873492.9990625139</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6449286359389215</v>
+        <v>1.9430007147405448</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.935210159928143</v>
+        <v>2.2858831938124058</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.935210159928143</v>
+        <v>2.2858831938124058</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.935210159928143</v>
+        <v>2.2858831938124058</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.5067102989253942</v>
+        <v>3.12190282209952</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12448,27 +12456,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18408311.587184068</v>
+        <v>21596440.770764168</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.6225642307602186</v>
+        <v>4.2499548900709092</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.26184027148261</v>
+        <v>4.9999469294951879</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.26184027148261</v>
+        <v>4.9999469294951879</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.26184027148261</v>
+        <v>4.9999469294951879</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.5204334506476229</v>
+        <v>6.828585323953285</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,27 +12517,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13383565.314053567</v>
+        <v>15734966.884913342</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6337464333495699</v>
+        <v>3.0964778024057269</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.0985252157053766</v>
+        <v>3.6429150616537971</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.0985252157053766</v>
+        <v>3.6429150616537971</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.0985252157053766</v>
+        <v>3.6429150616537971</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.0135718747865088</v>
+        <v>4.9752440730264027</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C748E48-EF8E-491A-BA5F-CE971E9638FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D4DD0A7-56C6-421A-B866-26CB7119F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3660,7 +3664,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4175,11 +4179,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9984946659812827E-2</v>
+        <v>6.0498840204091589E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7973826598366208E-2</v>
+        <v>4.8384820375239328E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4913,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.58</v>
+        <v>7.51</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4954,7 +4958,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>32740.551719999999</v>
+        <v>32438.198339999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5003,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5024,7 +5028,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5035,7 +5039,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5062,7 +5066,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5186,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.811254170229461</v>
+        <v>31.541040756247579</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5218,7 +5222,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9984946659812827E-2</v>
+        <v>6.0498840204091589E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5248,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9430007147405448</v>
+        <v>1.9440855075803369</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.5901882454144478</v>
+        <v>3.5921926762273571</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2858831938124058</v>
+        <v>2.2871594206827495</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.12190282209952</v>
+        <v>3.1236458054150935</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5296,8 +5300,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6323,12 +6327,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8754,118 +8758,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>-1.9819763418893539</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8873,107 +8878,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>4.6145740645342576E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-0.32792445265558884</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>4.6145740645342576E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-0.32792445265558884</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9541,7 +9593,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10224,6 +10278,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12133,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1435415738366244E-2</v>
+        <v>3.1704724258406793E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1435415738366244E-2</v>
+        <v>3.1704724258406793E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1435415738366244E-2</v>
+        <v>3.1704724258406793E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12184,17 +12239,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9984946659812827E-2</v>
+        <v>6.0498840204091589E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9984946659812827E-2</v>
+        <v>6.0498840204091589E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9984946659812827E-2</v>
+        <v>6.0498840204091589E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12254,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5977275916600364</v>
+        <v>4.6002945397485826</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5977275916600364</v>
+        <v>4.6002945397485826</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12282,14 +12337,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.056679193758699</v>
+        <v>10.073551264092099</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.056679193758699</v>
+        <v>10.073551264092099</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12332,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9873492.9990625139</v>
+        <v>9879005.4491753019</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2858831938124058</v>
+        <v>2.2871594206827495</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2858831938124058</v>
+        <v>2.2871594206827495</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.12190282209952</v>
+        <v>3.1236458054150935</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12395,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9873492.9990625139</v>
+        <v>9879005.4491753019</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9430007147405448</v>
+        <v>1.9440855075803369</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.2858831938124058</v>
+        <v>2.2871594206827495</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.2858831938124058</v>
+        <v>2.2871594206827495</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.2858831938124058</v>
+        <v>2.2871594206827495</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.12190282209952</v>
+        <v>3.1236458054150935</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12456,27 +12511,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21596440.770764168</v>
+        <v>21632673.075744286</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.2499548900709092</v>
+        <v>4.2570850307900807</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9999469294951879</v>
+        <v>5.0083353303412714</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.9999469294951879</v>
+        <v>5.0083353303412714</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9999469294951879</v>
+        <v>5.0083353303412714</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.828585323953285</v>
+        <v>6.8400416277334504</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12517,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>15734966.884913342</v>
+        <v>15755839.262459796</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0964778024057269</v>
+        <v>3.1005852691852089</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6429150616537971</v>
+        <v>3.6477473755120107</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6429150616537971</v>
+        <v>3.6477473755120107</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.6429150616537971</v>
+        <v>3.6477473755120107</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.9752440730264027</v>
+        <v>4.9818437165742715</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D4DD0A7-56C6-421A-B866-26CB7119F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B5389F-03D0-4C3B-90D7-364AD66307E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0498840204091589E-2</v>
+        <v>6.0556866065661109E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8384820375239328E-2</v>
+        <v>4.8431227395269609E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.51</v>
+        <v>7.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>32438.198339999999</v>
+        <v>32395.005000000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.541040756247579</v>
+        <v>31.510817989060516</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0498840204091589E-2</v>
+        <v>6.0556866065661109E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5252,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9440855075803369</v>
+        <v>1.9436453927942943</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.5921926762273571</v>
+        <v>3.5913794521665032</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2871594206827495</v>
+        <v>2.2866416385815227</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.1236458054150935</v>
+        <v>3.1229386540578292</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10318,8 +10318,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12188,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1704724258406793E-2</v>
+        <v>3.1735133005660658E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1704724258406793E-2</v>
+        <v>3.1735133005660658E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1704724258406793E-2</v>
+        <v>3.1735133005660658E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12239,17 +12239,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0498840204091589E-2</v>
+        <v>6.0556866065661109E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0498840204091589E-2</v>
+        <v>6.0556866065661109E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0498840204091589E-2</v>
+        <v>6.0556866065661109E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12309,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6002945397485826</v>
+        <v>4.5992530949977217</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6002945397485826</v>
+        <v>4.5992530949977217</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12337,14 +12337,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.073551264092099</v>
+        <v>10.072541837053258</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.073551264092099</v>
+        <v>10.072541837053258</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12387,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9879005.4491753019</v>
+        <v>9876768.9753408842</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2871594206827495</v>
+        <v>2.2866416385815227</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2871594206827495</v>
+        <v>2.2866416385815227</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.1236458054150935</v>
+        <v>3.1229386540578292</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12410,7 +12410,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12449,28 +12449,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>9879005.4491753019</v>
+        <f>C97+C98+$C$99</f>
+        <v>9876768.9753408842</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9440855075803369</v>
+        <v>1.9436453927942943</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>2.2871594206827495</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>2.2866416385815227</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.2871594206827495</v>
+        <v>2.2866416385815227</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.2871594206827495</v>
+        <v>2.2866416385815227</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>3.1236458054150935</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>3.1229386540578292</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12511,27 +12511,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21632673.075744286</v>
+        <v>21630505.359061997</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.2570850307900807</v>
+        <v>4.256658446696342</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.0083353303412714</v>
+        <v>5.0078334667015785</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.0083353303412714</v>
+        <v>5.0078334667015785</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.0083353303412714</v>
+        <v>5.0078334667015785</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.8400416277334504</v>
+        <v>6.8393562167215025</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12572,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>15755839.262459796</v>
+        <v>15753637.167201441</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1005852691852089</v>
+        <v>3.100151919745318</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6477473755120107</v>
+        <v>3.6472375526415508</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6477473755120107</v>
+        <v>3.6472375526415508</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.6477473755120107</v>
+        <v>3.6472375526415508</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.9818437165742715</v>
+        <v>4.9811474353896656</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B5389F-03D0-4C3B-90D7-364AD66307E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4199803B-5837-4890-8658-D3D2722F1348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0556866065661109E-2</v>
+        <v>6.0983310097816011E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8431227395269609E-2</v>
+        <v>4.8772282163035426E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.5</v>
+        <v>7.45</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>32395.005000000001</v>
+        <v>32179.0383</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.510817989060516</v>
+        <v>31.290469171356126</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0556866065661109E-2</v>
+        <v>6.0983310097816011E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5252,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9436453927942943</v>
+        <v>1.946390373677829</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.5913794521665032</v>
+        <v>3.5964515028493409</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2866416385815227</v>
+        <v>2.2898710278562695</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.1229386540578292</v>
+        <v>3.1273491329124705</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12188,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1735133005660658E-2</v>
+        <v>3.1958613165040638E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1735133005660658E-2</v>
+        <v>3.1958613165040638E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1735133005660658E-2</v>
+        <v>3.1958613165040638E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12239,17 +12239,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0556866065661109E-2</v>
+        <v>6.0983310097816011E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0556866065661109E-2</v>
+        <v>6.0983310097816011E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0556866065661109E-2</v>
+        <v>6.0983310097816011E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12309,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5992530949977217</v>
+        <v>4.6057485503267186</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5992530949977217</v>
+        <v>4.6057485503267186</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12337,14 +12337,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.072541837053258</v>
+        <v>10.096123466004075</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.072541837053258</v>
+        <v>10.096123466004075</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12387,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9876768.9753408842</v>
+        <v>9890717.7862345316</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2866416385815227</v>
+        <v>2.2898710278562695</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2866416385815227</v>
+        <v>2.2898710278562695</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.1229386540578292</v>
+        <v>3.1273491329124705</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12450,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9876768.9753408842</v>
+        <v>9890717.7862345316</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9436453927942943</v>
+        <v>1.946390373677829</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.2866416385815227</v>
+        <v>2.2898710278562695</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.2866416385815227</v>
+        <v>2.2898710278562695</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.2866416385815227</v>
+        <v>2.2898710278562695</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.1229386540578292</v>
+        <v>3.1273491329124705</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12511,27 +12511,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21630505.359061997</v>
+        <v>21681146.255833417</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.256658446696342</v>
+        <v>4.2666240483969062</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.0078334667015785</v>
+        <v>5.0195577039963606</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.0078334667015785</v>
+        <v>5.0195577039963606</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.0078334667015785</v>
+        <v>5.0195577039963606</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.8393562167215025</v>
+        <v>6.8553683776213346</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12572,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>15753637.167201441</v>
+        <v>15785932.021033976</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.100151919745318</v>
+        <v>3.1065072110373677</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6472375526415508</v>
+        <v>3.6547143659263153</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6472375526415508</v>
+        <v>3.6547143659263153</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.6472375526415508</v>
+        <v>3.6547143659263153</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.9811474353896656</v>
+        <v>4.9913587552669023</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4199803B-5837-4890-8658-D3D2722F1348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2797F2-D0E9-436A-A2C7-25D47967E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0983310097816011E-2</v>
+        <v>6.0814353420712064E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8772282163035426E-2</v>
+        <v>4.863715662268963E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.45</v>
+        <v>7.47</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>32179.0383</v>
+        <v>32265.42498</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5053,10 +5053,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5103,7 +5103,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.290469171356126</v>
+        <v>31.377401505564176</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0983310097816011E-2</v>
+        <v>6.0814353420712064E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5252,20 +5252,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.946390373677829</v>
+        <v>1.7765300079053798</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.5964515028493409</v>
+        <v>3.1966251852567233</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2898710278562695</v>
+        <v>2.0900353034180941</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.1273491329124705</v>
+        <v>2.7796740741362815</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12188,17 +12188,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1958613165040638E-2</v>
+        <v>3.1870070560899355E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1958613165040638E-2</v>
+        <v>3.1870070560899355E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1958613165040638E-2</v>
+        <v>3.1870070560899355E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12239,17 +12239,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0983310097816011E-2</v>
+        <v>6.0814353420712064E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0983310097816011E-2</v>
+        <v>6.0814353420712064E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0983310097816011E-2</v>
+        <v>6.0814353420712064E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12309,14 +12309,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6057485503267186</v>
+        <v>4.2038075296587252</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6057485503267186</v>
+        <v>4.2038075296587252</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12337,14 +12337,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.096123466004075</v>
+        <v>9.2116568130925476</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.096123466004075</v>
+        <v>9.2116568130925476</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12387,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9890717.7862345316</v>
+        <v>9027560.5472540893</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2898710278562695</v>
+        <v>2.0900353034180941</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2898710278562695</v>
+        <v>2.0900353034180941</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.1273491329124705</v>
+        <v>2.7796740741362815</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12450,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9890717.7862345316</v>
+        <v>9027560.5472540893</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.946390373677829</v>
+        <v>1.7765300079053798</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.2898710278562695</v>
+        <v>2.0900353034180941</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.2898710278562695</v>
+        <v>2.0900353034180941</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.2898710278562695</v>
+        <v>2.0900353034180941</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.1273491329124705</v>
+        <v>2.7796740741362815</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12511,27 +12511,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21681146.255833417</v>
+        <v>19781778.550520282</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.2666240483969062</v>
+        <v>3.8928482418683616</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.0195577039963606</v>
+        <v>4.5798214610216021</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.0195577039963606</v>
+        <v>4.5798214610216021</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.0195577039963606</v>
+        <v>4.5798214610216021</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.8553683776213346</v>
+        <v>6.0910028450500686</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12572,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>15785932.021033976</v>
+        <v>14404669.548887186</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1065072110373677</v>
+        <v>2.8346891248868706</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6547143659263153</v>
+        <v>3.3349283822198483</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6547143659263153</v>
+        <v>3.3349283822198483</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.6547143659263153</v>
+        <v>3.3349283822198483</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.9913587552669023</v>
+        <v>4.4353384595931749</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2797F2-D0E9-436A-A2C7-25D47967E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF09FE16-DF07-4367-B8E6-53958EE0F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4179,11 +4190,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0814353420712064E-2</v>
+        <v>6.1500329384958835E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.863715662268963E-2</v>
+        <v>4.9185775797864616E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4917,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.47</v>
+        <v>7.38</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4958,7 +4969,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>32265.42498</v>
+        <v>31876.68492</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5007,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5190,7 +5201,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.377401505564176</v>
+        <v>31.027417310868106</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5222,7 +5233,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0814353420712064E-2</v>
+        <v>6.1500329384958835E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5252,20 +5263,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7765300079053798</v>
+        <v>1.7780175150944713</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1966251852567233</v>
+        <v>3.1993017530167616</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0900353034180941</v>
+        <v>2.0917853118758485</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7796740741362815</v>
+        <v>2.7820015243624017</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12188,17 +12199,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1870070560899355E-2</v>
+        <v>3.2229559746493171E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1870070560899355E-2</v>
+        <v>3.2229559746493171E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1870070560899355E-2</v>
+        <v>3.2229559746493171E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12239,17 +12250,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0814353420712064E-2</v>
+        <v>6.1500329384958835E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0814353420712064E-2</v>
+        <v>6.1500329384958835E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0814353420712064E-2</v>
+        <v>6.1500329384958835E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12309,14 +12320,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2038075296587252</v>
+        <v>4.207327421748416</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2038075296587252</v>
+        <v>4.207327421748416</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12337,14 +12348,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2116568130925476</v>
+        <v>9.2331222819176784</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2116568130925476</v>
+        <v>9.2331222819176784</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12387,21 +12398,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9027560.5472540893</v>
+        <v>9035119.4182859547</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0900353034180941</v>
+        <v>2.0917853118758485</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0900353034180941</v>
+        <v>2.0917853118758485</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7796740741362815</v>
+        <v>2.7820015243624017</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12450,27 +12461,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9027560.5472540893</v>
+        <v>9035119.4182859547</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7765300079053798</v>
+        <v>1.7780175150944713</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0900353034180941</v>
+        <v>2.0917853118758485</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.0900353034180941</v>
+        <v>2.0917853118758485</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0900353034180941</v>
+        <v>2.0917853118758485</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7796740741362815</v>
+        <v>2.7820015243624017</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12511,27 +12522,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19781778.550520282</v>
+        <v>19827875.051876947</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8928482418683616</v>
+        <v>3.9019195538236691</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5798214610216021</v>
+        <v>4.5904935927337283</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5798214610216021</v>
+        <v>4.5904935927337283</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5798214610216021</v>
+        <v>4.5904935927337283</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0910028450500686</v>
+        <v>6.1051964080905821</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12572,27 +12583,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14404669.548887186</v>
+        <v>14431497.235081451</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.8346891248868706</v>
+        <v>2.8399685344590702</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.3349283822198483</v>
+        <v>3.3411394523047884</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.3349283822198483</v>
+        <v>3.3411394523047884</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.3349283822198483</v>
+        <v>3.3411394523047884</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4353384595931749</v>
+        <v>4.4435989662264923</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF09FE16-DF07-4367-B8E6-53958EE0F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9F3689-85C4-4137-9759-B6B21E6D7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>4319334000</v>
@@ -3672,10 +3697,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>19879540</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>6277942+1065856</f>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3902,7 +3927,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>59121</v>
@@ -3922,7 +3947,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>0</v>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <f>2962482-3624143</f>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <f>1021274+85158</f>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>1078800</v>
@@ -4022,7 +4047,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4038,7 +4063,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4070,7 +4095,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4118,7 +4143,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4134,7 +4159,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4150,7 +4175,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4166,7 +4191,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.42449999999999999</v>
@@ -4186,15 +4211,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1500329384958835E-2</v>
+        <v>6.1172605870226326E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9185775797864616E-2</v>
+        <v>4.8923674188319999E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4235,21 +4260,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4259,7 +4284,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4269,7 +4294,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4280,7 +4305,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4290,7 +4315,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4300,7 +4325,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4311,7 +4336,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4321,7 +4346,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4332,7 +4357,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4340,24 +4365,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4368,7 +4393,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4379,7 +4404,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4390,7 +4415,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4401,7 +4426,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4412,7 +4437,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4423,7 +4448,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4433,31 +4458,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4465,12 +4490,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4481,7 +4506,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4492,7 +4517,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4502,7 +4527,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4513,7 +4538,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4523,25 +4548,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4553,55 +4578,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4609,10 +4634,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4620,18 +4645,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4640,20 +4665,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4671,7 +4696,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4692,7 +4717,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4713,7 +4738,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4731,7 +4756,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4752,7 +4777,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4770,7 +4795,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4788,7 +4813,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4916,62 +4941,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.38</v>
+        <v>7.42</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>4319334000</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>31876.68492</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>32049.458279999999</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4994,16 +5019,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5018,7 +5043,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5028,40 +5053,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5074,29 +5099,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5106,12 +5131,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5121,29 +5146,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.69530102386843873</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5151,7 +5176,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5162,26 +5187,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5190,30 +5215,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.027417310868106</v>
+        <v>31.193642275613957</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>9.6644881579416319E-4</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5222,18 +5247,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.4810180002141216E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1500329384958835E-2</v>
+        <v>6.1172605870226326E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,62 +5268,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7780175150944713</v>
+        <v>1.7766496398962945</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1993017530167616</v>
+        <v>3.1968404468247349</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0917853118758485</v>
-      </c>
-      <c r="G29" s="274">
+        <v>2.0901760469368171</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7820015243624017</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>2.7798612581084652</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5308,25 +5333,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5336,7 +5361,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5346,14 +5371,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5363,7 +5388,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5378,14 +5403,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6338,12 +6363,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6370,16 +6395,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6397,7 +6422,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6430,7 +6455,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6441,7 +6466,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6593,7 +6618,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6644,7 +6669,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6695,7 +6720,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6746,7 +6771,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6797,7 +6822,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6848,7 +6873,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6899,7 +6924,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6950,7 +6975,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7001,7 +7026,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7052,7 +7077,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7103,7 +7128,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7154,7 +7179,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7205,7 +7230,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7256,7 +7281,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7307,7 +7332,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7358,7 +7383,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7409,7 +7434,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7460,7 +7485,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7511,7 +7536,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7664,7 +7689,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7715,7 +7740,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7817,7 +7842,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8021,7 +8046,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8072,7 +8097,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8123,7 +8148,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8174,7 +8199,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8225,7 +8250,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8276,7 +8301,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8294,7 +8319,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8345,7 +8370,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8396,7 +8421,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8447,7 +8472,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8498,7 +8523,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8549,7 +8574,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8600,7 +8625,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8651,7 +8676,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8668,50 +8693,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8720,10 +8745,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8771,167 +8796,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-1.9819763418893539</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8939,112 +8965,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>4.6145740645342576E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-0.32792445265558884</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>4.6145740645342576E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.32792445265558884</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9607,7 +9823,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10290,6 +10508,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10329,8 +10548,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10348,7 +10567,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10363,7 +10582,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10377,7 +10596,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10387,7 +10606,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10405,10 +10624,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10417,12 +10636,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10432,7 +10652,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10442,8 +10662,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10455,7 +10676,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10473,7 +10694,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10492,32 +10713,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10534,7 +10755,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10545,7 +10766,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10562,7 +10783,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10573,7 +10794,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10590,7 +10811,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10601,7 +10822,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10618,7 +10839,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10629,7 +10850,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10646,7 +10867,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10656,7 +10877,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10678,7 +10899,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10700,7 +10921,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10721,7 +10942,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10746,7 +10967,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10773,7 +10994,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10794,7 +11015,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10811,7 +11032,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10823,13 +11044,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10851,7 +11072,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10871,7 +11092,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10880,7 +11101,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10900,7 +11121,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10913,7 +11134,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10933,7 +11154,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10979,7 +11200,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10988,7 +11209,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11004,7 +11225,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11014,7 +11235,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11031,7 +11252,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11041,7 +11262,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11058,7 +11279,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11068,7 +11289,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11088,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11098,7 +11319,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11115,7 +11336,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11125,7 +11346,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11151,7 +11372,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11178,7 +11399,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11205,7 +11426,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11226,7 +11447,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11247,7 +11468,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11268,7 +11489,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11289,7 +11510,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11306,7 +11527,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11324,7 +11545,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11343,7 +11564,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11362,7 +11583,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11379,7 +11600,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11392,7 +11613,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11409,7 +11630,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11422,7 +11643,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11439,7 +11660,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11466,7 +11687,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11482,14 +11703,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11506,7 +11727,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11536,7 +11757,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11547,14 +11768,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11562,30 +11783,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11602,11 +11823,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11616,7 +11837,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11637,7 +11858,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11658,7 +11879,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11679,7 +11900,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11694,7 +11915,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11725,11 +11946,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11739,7 +11960,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11760,7 +11981,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11775,7 +11996,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11797,21 +12018,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11821,23 +12042,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11858,7 +12079,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11888,7 +12109,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11909,7 +12130,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11939,7 +12160,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11969,7 +12190,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12000,7 +12221,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12027,12 +12248,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12062,7 +12283,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12092,7 +12313,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12122,7 +12343,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12143,7 +12364,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12174,7 +12395,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12195,28 +12416,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2229559746493171E-2</v>
+        <v>3.2057814575304121E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2229559746493171E-2</v>
+        <v>3.2057814575304121E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2229559746493171E-2</v>
+        <v>3.2057814575304121E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12246,21 +12467,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1500329384958835E-2</v>
+        <v>6.1172605870226326E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1500329384958835E-2</v>
+        <v>6.1172605870226326E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1500329384958835E-2</v>
+        <v>6.1172605870226326E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12277,29 +12498,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12316,24 +12537,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.207327421748416</v>
+        <v>4.2040906151467032</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.207327421748416</v>
+        <v>4.2040906151467032</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12344,18 +12565,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2331222819176784</v>
+        <v>9.2194530011837266</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2331222819176784</v>
+        <v>9.2194530011837266</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12374,51 +12595,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9035119.4182859547</v>
+        <v>9028168.4655197915</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0917853118758485</v>
+        <v>2.0901760469368171</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0917853118758485</v>
+        <v>2.0901760469368171</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7820015243624017</v>
+        <v>2.7798612581084652</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12436,7 +12657,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12457,31 +12678,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9035119.4182859547</v>
+        <v>9028168.4655197915</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7780175150944713</v>
+        <v>1.7766496398962945</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0917853118758485</v>
+        <v>2.0901760469368171</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.0917853118758485</v>
+        <v>2.0901760469368171</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0917853118758485</v>
+        <v>2.0901760469368171</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7820015243624017</v>
+        <v>2.7798612581084652</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12491,58 +12712,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19827875.051876947</v>
+        <v>19798520.649090294</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9019195538236691</v>
+        <v>3.8961429127098643</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5904935927337283</v>
+        <v>4.5836975443645462</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5904935927337283</v>
+        <v>4.5836975443645462</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5904935927337283</v>
+        <v>4.5836975443645462</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.1051964080905821</v>
+        <v>6.0961579007373823</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12552,58 +12773,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14431497.235081451</v>
+        <v>14413344.557305042</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.8399685344590702</v>
+        <v>2.8363962763030797</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.3411394523047884</v>
+        <v>3.3369367956506819</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.3411394523047884</v>
+        <v>3.3369367956506819</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.3411394523047884</v>
+        <v>3.3369367956506819</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4435989662264923</v>
+        <v>4.438009579422924</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12612,7 +12833,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12621,6 +12842,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9F3689-85C4-4137-9759-B6B21E6D7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD541BA-CDF5-4459-814F-E80188028830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.69530102386843873</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25685454836897598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0677989446499247E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.6644881579416319E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4810180002141216E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3672,7 +2835,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3681,15 +2844,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>4319334000</v>
@@ -3697,10 +2860,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3927,7 +3090,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>59121</v>
@@ -4063,7 +3226,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4159,7 +3322,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4191,7 +3354,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.42449999999999999</v>
@@ -4211,15 +3374,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1172605870226326E-2</v>
+        <v>6.0838911328814312E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8923674188319999E-2</v>
+        <v>4.8656797164034066E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4260,13 +3423,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4325,7 +3488,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4336,7 +3499,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4437,7 +3600,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4448,7 +3611,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4608,7 +3771,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4626,7 +3789,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4634,10 +3797,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4647,16 +3810,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4665,10 +3828,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4717,7 +3880,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4738,7 +3901,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4756,7 +3919,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4795,7 +3958,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4813,7 +3976,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4899,8 +4062,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4941,62 +4104,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.42</v>
+        <v>7.46</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>4319334000</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>32049.458279999999</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>32222.231640000002</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5019,16 +4182,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5043,7 +4206,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5053,40 +4216,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5099,29 +4262,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5131,12 +4294,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5144,9 +4307,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5154,59 +4317,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.69530102386843873</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.25685454836897598</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>4.7844427762585302E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5215,30 +4378,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.193642275613957</v>
+        <v>31.364735872241184</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>9.6644881579416319E-4</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5247,18 +4410,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>4.4810180002141216E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>9.6644881579416319E-4</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1172605870226326E-2</v>
+        <v>6.0838911328814312E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5268,62 +4431,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7766496398962945</v>
+        <v>1.7749789074952951</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1968404468247349</v>
+        <v>3.1938341901068106</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0901760469368171</v>
-      </c>
-      <c r="G29" s="278">
+        <v>2.0882104794062295</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7798612581084652</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>2.7772471218320094</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5333,7 +4496,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5344,14 +4507,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5361,7 +4524,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5371,14 +4534,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5388,7 +4551,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5403,14 +4566,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6354,7 +5517,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6368,7 +5530,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6395,16 +5557,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6422,7 +5584,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6455,7 +5617,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6822,7 +5984,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6873,7 +6035,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6924,7 +6086,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6975,7 +6137,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7077,7 +6239,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7230,7 +6392,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7740,7 +6902,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8250,7 +7412,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8301,7 +7463,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8370,7 +7532,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8574,7 +7736,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8676,7 +7838,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8694,14 +7856,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8745,7 +7907,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8796,7 +7958,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8847,7 +8009,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8898,7 +8060,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8915,7 +8077,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9115,7 +8277,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9165,7 +8327,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9215,7 +8377,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10719,7 +9881,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10877,7 +10039,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11289,7 +10451,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11757,7 +10919,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11771,11 +10933,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11786,11 +10948,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11802,11 +10964,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11823,7 +10985,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11900,7 +11062,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11946,7 +11108,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11981,7 +11143,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12020,19 +11182,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12042,18 +11204,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12130,7 +11292,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12160,7 +11322,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12190,7 +11352,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12253,7 +11415,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12283,7 +11445,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12364,7 +11526,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12395,7 +11557,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12416,28 +11578,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2057814575304121E-2</v>
+        <v>3.1882940257278961E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2057814575304121E-2</v>
+        <v>3.1882940257278961E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2057814575304121E-2</v>
+        <v>3.1882940257278961E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12467,21 +11629,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1172605870226326E-2</v>
+        <v>6.0838911328814312E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1172605870226326E-2</v>
+        <v>6.0838911328814312E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1172605870226326E-2</v>
+        <v>6.0838911328814312E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12503,24 +11665,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12537,24 +11699,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2040906151467032</v>
+        <v>4.2001371567665391</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2040906151467032</v>
+        <v>4.2001371567665391</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12565,18 +11727,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2194530011837266</v>
+        <v>9.2041054312426098</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2194530011837266</v>
+        <v>9.2041054312426098</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12595,14 +11757,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12619,21 +11781,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9028168.4655197915</v>
+        <v>9019678.5228556264</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0901760469368171</v>
+        <v>2.0882104794062295</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0901760469368171</v>
+        <v>2.0882104794062295</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7798612581084652</v>
+        <v>2.7772471218320094</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12682,27 +11844,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9028168.4655197915</v>
+        <v>9019678.5228556264</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7766496398962945</v>
+        <v>1.7749789074952951</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0901760469368171</v>
+        <v>2.0882104794062295</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.0901760469368171</v>
+        <v>2.0882104794062295</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0901760469368171</v>
+        <v>2.0882104794062295</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7798612581084652</v>
+        <v>2.7772471218320094</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12712,21 +11874,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12739,31 +11901,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19798520.649090294</v>
+        <v>19765562.166591</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8961429127098643</v>
+        <v>3.8896570261994903</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5836975443645462</v>
+        <v>4.5760670896464593</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5836975443645462</v>
+        <v>4.5760670896464593</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5836975443645462</v>
+        <v>4.5760670896464593</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0961579007373823</v>
+        <v>6.086009662035841</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12773,21 +11935,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12800,31 +11962,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14413344.557305042</v>
+        <v>14392620.344723312</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.8363962763030797</v>
+        <v>2.8323179668473926</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.3369367956506819</v>
+        <v>3.3321387845263444</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.3369367956506819</v>
+        <v>3.3321387845263444</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.3369367956506819</v>
+        <v>3.3321387845263444</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.438009579422924</v>
+        <v>4.4316283919339252</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12833,7 +11995,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD541BA-CDF5-4459-814F-E80188028830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A241E934-E278-43AC-9730-6F444DC6226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -2835,7 +2855,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2844,15 +2864,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>4319334000</v>
@@ -2860,10 +2880,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3090,7 +3110,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>59121</v>
@@ -3192,9 +3212,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3210,7 +3230,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3226,7 +3246,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3241,10 +3261,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3256,9 +3277,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3305,10 +3326,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3322,9 +3344,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3338,7 +3360,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3354,7 +3376,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.42449999999999999</v>
@@ -3374,15 +3396,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0838911328814312E-2</v>
+        <v>6.0672456392629893E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8656797164034066E-2</v>
+        <v>4.8523672427085635E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3423,13 +3445,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3447,7 +3469,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3457,7 +3479,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3488,7 +3510,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3499,7 +3521,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3533,7 +3555,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3600,7 +3622,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3611,7 +3633,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3658,7 +3680,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3771,7 +3793,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3789,7 +3811,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3797,10 +3819,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3808,7 +3830,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3816,10 +3838,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3841,7 +3863,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3880,7 +3902,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3901,7 +3923,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3919,7 +3941,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3958,7 +3980,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3976,7 +3998,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3999,28 +4021,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4062,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4104,7 +4131,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4116,15 +4143,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.46</v>
+        <v>7.48</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4144,7 +4171,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4157,7 +4184,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>32222.231640000002</v>
+        <v>32308.618320000001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4191,7 +4218,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4206,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4216,40 +4243,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4262,29 +4289,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4294,12 +4321,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4309,7 +4336,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4317,21 +4344,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4339,10 +4366,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4350,58 +4377,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>4.7844427762585302E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.364735872241184</v>
+        <v>31.450785052024994</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4410,18 +4437,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>9.6644881579416319E-4</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0838911328814312E-2</v>
+        <v>6.0672456392629893E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4431,40 +4458,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7749789074952951</v>
+        <v>1.7741181345926156</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1938341901068106</v>
+        <v>3.192285345827655</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0882104794062295</v>
+        <v>2.0871978054030773</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7772471218320094</v>
+        <v>2.7759003007197003</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4472,21 +4499,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4496,25 +4523,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4524,7 +4551,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4534,14 +4561,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4551,7 +4578,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4566,14 +4593,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5473,27 +5500,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5525,12 +5552,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5557,16 +5584,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5584,7 +5611,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5617,7 +5644,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5628,7 +5655,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5984,7 +6011,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6035,7 +6062,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6086,7 +6113,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6137,7 +6164,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6239,7 +6266,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6392,7 +6419,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6647,7 +6674,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6698,7 +6725,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6752,15 +6779,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6800,50 +6827,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6851,50 +6878,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6902,101 +6929,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7004,101 +7031,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7106,50 +7133,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7157,50 +7184,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7208,50 +7235,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7259,272 +7286,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.69530102386843873</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.71023846045174943</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.25685454836897598</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.24516106063707416</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.69530102386843873</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.71023846045174943</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>2.882077182385151E-2</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7532,50 +7559,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.25685454836897598</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.0677989446499247E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.24516106063707416</v>
+        <f t="shared" si="37"/>
+        <v>2.1419497709487543E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7583,50 +7610,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>2.882077182385151E-2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7634,50 +7661,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.0677989446499247E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>9.6644881579416319E-4</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.1419497709487543E-3</v>
+        <f t="shared" si="39"/>
+        <v>2.0169596444574299E-2</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7685,221 +7712,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>4.4810180002141216E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-6.5318391281982031E-3</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>9.6644881579416319E-4</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>2.0169596444574299E-2</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>4.4810180002141216E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-6.5318391281982031E-3</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7907,522 +7934,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-1.9819763418893539</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-1.9819763418893539</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>4.6145740645342576E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.32792445265558884</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>4.6145740645342576E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-0.32792445265558884</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8982,12 +8913,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9669,27 +9596,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9881,7 +9811,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9928,7 +9858,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9956,7 +9886,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10039,7 +9969,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10061,7 +9991,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10129,7 +10059,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10451,7 +10381,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10588,7 +10518,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10919,7 +10849,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10985,7 +10915,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11020,7 +10950,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11041,7 +10971,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11062,7 +10992,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11077,7 +11007,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11108,7 +11038,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11122,7 +11052,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11143,7 +11073,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11158,7 +11088,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11180,7 +11110,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11188,11 +11118,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11220,7 +11150,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11292,7 +11222,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11322,7 +11252,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11352,7 +11282,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11410,12 +11340,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11445,7 +11375,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11475,7 +11405,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11526,7 +11456,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11557,7 +11487,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11578,28 +11508,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1882940257278961E-2</v>
+        <v>3.1795708703163637E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1882940257278961E-2</v>
+        <v>3.1795708703163637E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1882940257278961E-2</v>
+        <v>3.1795708703163637E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11629,21 +11559,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0838911328814312E-2</v>
+        <v>6.0672456392629893E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0838911328814312E-2</v>
+        <v>6.0672456392629893E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0838911328814312E-2</v>
+        <v>6.0672456392629893E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11660,27 +11590,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11699,24 +11629,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2001371567665391</v>
+        <v>4.1981003076317043</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2001371567665391</v>
+        <v>4.1981003076317043</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11727,18 +11657,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2041054312426098</v>
+        <v>9.1963131120558721</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2041054312426098</v>
+        <v>9.1963131120558721</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11757,14 +11687,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11777,31 +11707,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9019678.5228556264</v>
+        <v>9015304.4456028957</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0882104794062295</v>
+        <v>2.0871978054030773</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0882104794062295</v>
+        <v>2.0871978054030773</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7772471218320094</v>
+        <v>2.7759003007197003</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11819,7 +11749,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11844,27 +11774,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9019678.5228556264</v>
+        <v>9015304.4456028957</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7749789074952951</v>
+        <v>1.7741181345926156</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0882104794062295</v>
+        <v>2.0871978054030773</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.0882104794062295</v>
+        <v>2.0871978054030773</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0882104794062295</v>
+        <v>2.0871978054030773</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7772471218320094</v>
+        <v>2.7759003007197003</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11874,21 +11804,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11901,31 +11831,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19765562.166591</v>
+        <v>19748828.376386408</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8896570261994903</v>
+        <v>3.8863639903578755</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5760670896464593</v>
+        <v>4.572192929832795</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5760670896464593</v>
+        <v>4.572192929832795</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5760670896464593</v>
+        <v>4.572192929832795</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.086009662035841</v>
+        <v>6.080857164575395</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11935,21 +11865,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11962,31 +11892,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14392620.344723312</v>
+        <v>14382066.410994651</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.8323179668473926</v>
+        <v>2.8302410624752454</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.3321387845263444</v>
+        <v>3.3296953676179362</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.3321387845263444</v>
+        <v>3.3296953676179362</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.3321387845263444</v>
+        <v>3.3296953676179362</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4316283919339252</v>
+        <v>4.4283787326475474</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11995,7 +11925,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A241E934-E278-43AC-9730-6F444DC6226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9288F62C-FCEC-4D94-991C-3DEB10BC48AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>4319334000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,423 +3042,427 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>28591271</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>28257432</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>19879540</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>20069515</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>6277942+1065856</f>
         <v>7343798</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>5886596+1041026</f>
         <v>6927622</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>59121</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>60526</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
-        <v>0</v>
-      </c>
-      <c r="D30" s="150">
-        <v>0</v>
-      </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="C30" s="149">
+        <v>0</v>
+      </c>
+      <c r="D30" s="149">
+        <v>0</v>
+      </c>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <f>2962482-3624143</f>
         <v>-661661</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <f>2869480-2055079</f>
         <v>814401</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <f>1021274+85158</f>
         <v>1106432</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <f>1023585+92256</f>
         <v>1115841</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>1078800</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>545900</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.42449999999999999</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <v>0.33950000000000002</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0672456392629893E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>6.078619960166174E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8523672427085635E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>4.8614640199680002E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3521,7 +3533,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3549,7 +3561,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3561,7 +3573,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3580,8 +3592,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3633,7 +3645,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3649,7 +3661,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3661,7 +3673,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3674,7 +3686,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3722,14 +3734,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3753,7 +3765,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3783,19 +3795,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3811,20 +3823,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3854,10 +3866,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3869,12 +3881,12 @@
         <f>C25</f>
         <v>28591271</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>28591271</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>28591271</v>
       </c>
@@ -3887,75 +3899,75 @@
         <f>C26</f>
         <v>19879540</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>19879540</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>19879540</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>7343798</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>7343798</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>7343798</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>59121</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>59121</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>27632</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>27632</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>27632</v>
       </c>
@@ -3968,12 +3980,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3986,12 +3998,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4000,16 +4012,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.42449999999999999</v>
       </c>
@@ -4090,7 +4102,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4142,11 +4154,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>7.48</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>7.46</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4184,7 +4196,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>32308.618320000001</v>
+        <v>32222.231640000002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4194,11 +4206,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4220,11 +4232,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4232,8 +4244,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4242,10 +4254,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4253,7 +4265,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4261,13 +4273,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4276,12 +4288,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4291,7 +4303,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4302,7 +4314,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4310,13 +4322,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4326,49 +4338,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4376,79 +4388,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.450785052024994</v>
+        <v>31.391934305608363</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>1.9081963845829624</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0672456392629893E-2</v>
+        <v>6.078619960166174E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4465,10 +4477,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4476,22 +4488,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7741181345926156</v>
-      </c>
-      <c r="D29" s="129">
+        <v>1.7732036743647732</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>3.192285345827655</v>
+        <v>3.1906398984767916</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0871978054030773</v>
+        <v>2.0861219698409097</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7759003007197003</v>
+        <v>2.7744694769363409</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4499,23 +4511,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4523,9 +4535,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4533,17 +4545,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4551,26 +4563,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4578,9 +4590,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4593,16 +4605,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5554,10 +5566,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5583,16 +5595,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5606,11 +5618,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5635,7 +5647,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5643,7 +5655,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5707,47 +5719,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>28591271</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>28257432</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5809,47 +5821,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>19879540</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>20069515</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5860,47 +5872,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>8711731</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>8187917</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5911,47 +5923,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>7343798</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>6927622</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5962,47 +5974,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6011,49 +6023,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6061,50 +6073,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>4.4600478911176356E-2</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6112,50 +6124,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1367933</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1260295</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6163,50 +6175,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>8.5406988046449445E-2</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6217,47 +6229,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-661661</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>814401</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6266,49 +6278,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>59121</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>60526</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6319,47 +6331,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.8698244649564548E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>3.9488407863814377E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6370,47 +6382,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>1106432</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>1115841</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6419,49 +6431,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>3.7731795833770385E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>1.9318811419240078E-2</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6472,47 +6484,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>1078800</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>545900</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6523,47 +6535,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1281180</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-184573</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6574,47 +6586,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-4.8988793461486524E-3</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6625,7 +6637,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>960885</v>
       </c>
@@ -6673,50 +6685,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233" t="str">
+      <c r="C25" s="230" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6833,43 +6845,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6884,43 +6896,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6929,49 +6941,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6986,43 +6998,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7037,43 +7049,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7139,43 +7151,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7190,43 +7202,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7241,43 +7253,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7339,47 +7351,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7388,7 +7400,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7408,47 +7420,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.71023846045174943</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7457,49 +7469,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.24516106063707416</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7510,47 +7522,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>2.882077182385151E-2</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7561,47 +7573,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>2.1419497709487543E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7612,47 +7624,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7661,49 +7673,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>2.0169596444574299E-2</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7714,47 +7726,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-6.5318391281982031E-3</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7763,9 +7775,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7780,50 +7794,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7832,49 +7846,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7883,49 +7897,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7934,49 +7948,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-1.9819763418893539</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7985,7 +7999,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8002,49 +8016,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8054,47 +8068,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8104,47 +8118,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>4.6145740645342576E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-0.32792445265558884</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8154,47 +8168,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8202,149 +8216,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9640,8 +9654,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9677,8 +9691,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9690,8 +9704,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9701,8 +9715,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9789,11 +9803,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9836,7 +9850,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9864,7 +9878,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9892,7 +9906,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9920,7 +9934,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9933,7 +9947,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9948,7 +9962,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9975,7 +9989,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9997,7 +10011,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10019,7 +10033,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10040,7 +10054,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10048,7 +10062,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10065,7 +10079,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10073,7 +10087,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10092,7 +10106,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10113,7 +10127,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10278,7 +10292,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10307,7 +10321,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10333,7 +10347,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10360,7 +10374,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10387,7 +10401,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10403,7 +10417,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10417,7 +10431,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10444,7 +10458,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10452,7 +10466,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10470,7 +10484,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10478,7 +10492,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10497,7 +10511,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10505,7 +10519,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10524,7 +10538,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10545,7 +10559,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10566,7 +10580,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10587,7 +10601,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10608,7 +10622,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10754,8 +10768,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10781,8 +10795,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10852,7 +10866,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10952,7 +10966,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10960,7 +10974,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10991,11 +11005,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11072,12 +11086,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11156,17 +11170,17 @@
         <f>Data!C6</f>
         <v>28591271</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>28591271</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>28591271</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11177,23 +11191,23 @@
         <f>Data!C8</f>
         <v>19879540</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>19879540</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>19879540</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.69530102386843873</v>
       </c>
@@ -11203,48 +11217,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>8711731</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>8711731</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>8711731</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>7343798</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>7343798</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>7343798</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.25685454836897598</v>
       </c>
@@ -11258,54 +11272,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1367933</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>1367933</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1367933</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>4.7844427762585302E-2</v>
       </c>
@@ -11319,55 +11333,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>59121</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>59121</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>59121</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.0677989446499247E-3</v>
       </c>
@@ -11375,29 +11389,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>27632</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>27632</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>27632</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>9.6644881579416319E-4</v>
       </c>
@@ -11407,27 +11421,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>1281180</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>1281180</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>1281180</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>4.4810180002141216E-2</v>
       </c>
@@ -11437,49 +11451,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>960885</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>960885</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>960885</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>3.3607635001605907E-2</v>
       </c>
@@ -11489,69 +11503,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1795708703163637E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>3.1855316409137101E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1795708703163637E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>3.1855316409137101E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1795708703163637E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>3.1855316409137101E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.9081963845829624</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>1.9081963845829624</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>1.9081963845829624</v>
       </c>
@@ -11559,23 +11573,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0672456392629893E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>6.078619960166174E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0672456392629893E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.078619960166174E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0672456392629893E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>6.078619960166174E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11597,7 +11611,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11620,27 +11634,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.1981003076317043</v>
+        <v>4.1959364180411702</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.1981003076317043</v>
+        <v>4.1959364180411702</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11648,27 +11662,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1963131120558721</v>
+        <v>9.193846366192119</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1963131120558721</v>
+        <v>9.193846366192119</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11682,25 +11696,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11711,21 +11725,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9015304.4456028957</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>9010657.552480815</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0871978054030773</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>2.0861219698409097</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0871978054030773</v>
-      </c>
-      <c r="I97" s="123">
+        <v>2.0861219698409097</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7759003007197003</v>
+        <v>2.7744694769363409</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11737,14 +11751,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11755,17 +11769,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11774,27 +11788,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9015304.4456028957</v>
+        <v>9010657.552480815</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7741181345926156</v>
+        <v>1.7732036743647732</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0871978054030773</v>
+        <v>2.0861219698409097</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.0871978054030773</v>
+        <v>2.0861219698409097</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0871978054030773</v>
+        <v>2.0861219698409097</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7759003007197003</v>
+        <v>2.7744694769363409</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11806,25 +11820,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11835,27 +11849,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19748828.376386408</v>
+        <v>19743531.107783452</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8863639903578755</v>
-      </c>
-      <c r="E103" s="123">
+        <v>3.8853215430008272</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.572192929832795</v>
+        <v>4.5709665211774437</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.572192929832795</v>
-      </c>
-      <c r="H103" s="123">
+        <v>4.5709665211774437</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.572192929832795</v>
+        <v>4.5709665211774437</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.080857164575395</v>
+        <v>6.0792260838285763</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11867,25 +11881,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11896,27 +11910,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14382066.410994651</v>
+        <v>14377094.330132134</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.8302410624752454</v>
-      </c>
-      <c r="E106" s="123">
+        <v>2.8292626086828001</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.3296953676179362</v>
+        <v>3.3285442455091765</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.3296953676179362</v>
-      </c>
-      <c r="H106" s="123">
+        <v>3.3285442455091765</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.3296953676179362</v>
-      </c>
-      <c r="I106" s="123">
+        <v>3.3285442455091765</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>4.4283787326475474</v>
+        <v>4.4268477803824586</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11927,14 +11941,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9288F62C-FCEC-4D94-991C-3DEB10BC48AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25140DBC-1F91-4401-90FA-ED97A88BDCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3272,9 +3272,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3338,9 +3336,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3356,9 +3352,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3412,11 +3406,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.078619960166174E-2</v>
+        <v>6.1277148200047975E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8614640199680002E-2</v>
+        <v>4.900728342500893E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4155,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>7.46</v>
+        <v>7.4</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4196,7 +4190,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>32222.231640000002</v>
+        <v>31963.071599999999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4245,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4428,7 +4422,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.391934305608363</v>
+        <v>31.140424132555641</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4460,7 +4454,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.078619960166174E-2</v>
+        <v>6.1277148200047975E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4490,20 +4484,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7732036743647732</v>
+        <v>1.7753600316944911</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>3.1906398984767916</v>
+        <v>3.1945199714943695</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0861219698409097</v>
+        <v>2.0886588608170484</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7744694769363409</v>
+        <v>2.7778434534733649</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11526,17 +11520,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1855316409137101E-2</v>
+        <v>3.211260051383031E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1855316409137101E-2</v>
+        <v>3.211260051383031E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1855316409137101E-2</v>
+        <v>3.211260051383031E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11577,17 +11571,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.078619960166174E-2</v>
+        <v>6.1277148200047975E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.078619960166174E-2</v>
+        <v>6.1277148200047975E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.078619960166174E-2</v>
+        <v>6.1277148200047975E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11647,14 +11641,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.1959364180411702</v>
+        <v>4.2010390119399315</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.1959364180411702</v>
+        <v>4.2010390119399315</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11675,14 +11669,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.193846366192119</v>
+        <v>9.2148537559874359</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.193846366192119</v>
+        <v>9.2148537559874359</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11725,21 +11719,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9010657.552480815</v>
+        <v>9021615.2319283448</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0861219698409097</v>
+        <v>2.0886588608170484</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0861219698409097</v>
+        <v>2.0886588608170484</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7744694769363409</v>
+        <v>2.7778434534733649</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11788,27 +11782,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9010657.552480815</v>
+        <v>9021615.2319283448</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7732036743647732</v>
+        <v>1.7753600316944911</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0861219698409097</v>
+        <v>2.0886588608170484</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.0861219698409097</v>
+        <v>2.0886588608170484</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0861219698409097</v>
+        <v>2.0886588608170484</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7744694769363409</v>
+        <v>2.7778434534733649</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11849,27 +11843,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19743531.107783452</v>
+        <v>19788643.897077207</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8853215430008272</v>
+        <v>3.894199270655065</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5709665211774437</v>
+        <v>4.5814109066530175</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.5709665211774437</v>
+        <v>4.5814109066530175</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5709665211774437</v>
+        <v>4.5814109066530175</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0792260838285763</v>
+        <v>6.0931167523159742</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11910,27 +11904,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14377094.330132134</v>
+        <v>14405129.564502776</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.8292626086828001</v>
+        <v>2.8347796511747783</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.3285442455091765</v>
+        <v>3.335034883735033</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.3285442455091765</v>
+        <v>3.335034883735033</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.3285442455091765</v>
+        <v>3.335034883735033</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>4.4268477803824586</v>
+        <v>4.4354801028946698</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25140DBC-1F91-4401-90FA-ED97A88BDCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF453CE2-B811-46D3-9232-FD51ADC5FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>4319334000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>4319334000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,815 +3033,816 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>28591271</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>28257432</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>19879540</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>20069515</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>6277942+1065856</f>
         <v>7343798</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>5886596+1041026</f>
         <v>6927622</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
         <v>59121</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="148">
         <v>60526</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>0</v>
-      </c>
-      <c r="D30" s="149">
-        <v>0</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>0</v>
+      </c>
+      <c r="D30" s="148">
+        <v>0</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
         <f>2962482-3624143</f>
         <v>-661661</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="148">
         <f>2869480-2055079</f>
         <v>814401</v>
       </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148">
         <f>1021274+85158</f>
         <v>1106432</v>
       </c>
-      <c r="D32" s="149">
+      <c r="D32" s="148">
         <f>1023585+92256</f>
         <v>1115841</v>
       </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="B33" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="148">
         <v>1078800</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>545900</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.42449999999999999</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <v>0.33950000000000002</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1277148200047975E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>6.1848819524171726E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.900728342500893E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>4.9464485814973626E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3856,166 +3851,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>28591271</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>28591271</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>28591271</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>19879540</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>19879540</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>19879540</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>7343798</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>7343798</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>7343798</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>59121</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>59121</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>27632</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>27632</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>27632</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.42449999999999999</v>
       </c>
@@ -4028,32 +4023,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4112,13 +4107,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4129,82 +4124,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0220.HK : 统一中国</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>7.4</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>7.33</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>4319334000</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>31963.071599999999</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>31660.718219999999</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4215,31 +4210,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4248,280 +4243,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.140424132555641</v>
+        <v>30.85259184028892</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>1.9081963845829624</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1277148200047975E-2</v>
+        <v>6.1848819524171726E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7753600316944911</v>
-      </c>
-      <c r="D29" s="128">
+        <v>1.7775497977546517</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.1945199714943695</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>3.1984601589984254</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0886588608170484</v>
-      </c>
-      <c r="G29" s="286">
+        <v>2.0912350561819433</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7778434534733649</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>2.7812697034768918</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4529,9 +4524,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4539,17 +4534,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4557,26 +4552,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4584,9 +4579,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4599,16 +4594,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5560,10 +5555,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5589,59 +5584,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1367933</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5649,19 +5644,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5710,928 +5705,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>28591271</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>28257432</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>1.1814201658522983E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>19879540</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>20069515</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>8711731</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>8187917</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>7343798</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>6927622</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>4.4600478911176356E-2</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1367933</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1260295</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>8.5406988046449445E-2</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-661661</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>814401</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>59121</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>60526</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.8698244649564548E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>3.9488407863814377E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>1106432</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>1115841</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>3.7731795833770385E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>1.9318811419240078E-2</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>1078800</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>545900</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1281180</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-184573</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-4.8988793461486524E-3</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>960885</v>
       </c>
@@ -6675,63 +6670,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230" t="str">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6777,11 +6772,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6828,266 +6823,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7134,165 +7129,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7338,63 +7333,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7407,372 +7402,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.71023846045174943</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.24516106063707416</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>2.882077182385151E-2</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>2.1419497709487543E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>2.0169596444574299E-2</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-6.5318391281982031E-3</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7784,216 +7779,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-1.9819763418893539</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8009,350 +8004,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>4.6145740645342576E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-0.32792445265558884</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9631,7 +9626,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9649,7 +9644,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9667,25 +9662,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9693,12 +9688,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9706,28 +9701,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9740,7 +9735,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9749,16 +9744,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9766,7 +9761,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9776,287 +9771,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10067,21 +10062,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10094,45 +10089,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10140,17 +10135,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10160,19 +10155,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10182,17 +10177,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10201,7 +10196,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10211,17 +10206,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10234,7 +10229,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10244,17 +10239,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10281,12 +10276,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10296,171 +10291,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10468,25 +10463,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10494,26 +10489,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10521,113 +10516,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10635,17 +10630,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10655,16 +10650,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10674,16 +10669,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10693,14 +10688,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10713,7 +10708,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10723,14 +10718,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10743,13 +10738,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10757,12 +10752,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10773,63 +10768,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10837,45 +10832,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10883,61 +10878,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10951,35 +10946,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10993,29 +10988,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11029,9 +11024,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11039,28 +11034,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11074,29 +11069,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11110,29 +11105,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11142,66 +11137,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>28591271</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>28591271</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>28591271</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>19879540</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>19879540</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.69530102386843873</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>19879540</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.69530102386843873</v>
       </c>
@@ -11209,50 +11204,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>8711731</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>8711731</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>8711731</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>7343798</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>7343798</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.25685454836897598</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>7343798</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.25685454836897598</v>
       </c>
@@ -11260,60 +11255,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1367933</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>1367933</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>4.7844427762585302E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1367933</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>4.7844427762585302E-2</v>
       </c>
@@ -11321,61 +11316,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>59121</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>59121</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>59121</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.0677989446499247E-3</v>
       </c>
@@ -11383,59 +11378,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>27632</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>27632</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>9.6644881579416319E-4</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>27632</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>9.6644881579416319E-4</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>1281180</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>1281180</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>4.4810180002141216E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>1281180</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>4.4810180002141216E-2</v>
       </c>
@@ -11443,184 +11438,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>960885</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>960885</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>3.3607635001605907E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>960885</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>3.3607635001605907E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.22246137946266717</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.211260051383031E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>3.2412187772637886E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.211260051383031E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>3.2412187772637886E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.211260051383031E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>3.2412187772637886E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.9081963845829624</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>1.9081963845829624</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.42449999999999999</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>1.9081963845829624</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1277148200047975E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>6.1848819524171726E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1277148200047975E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.1848819524171726E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1277148200047975E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>6.1848819524171726E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11628,55 +11623,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2010390119399315</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>4.2062206610035169</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2010390119399315</v>
+        <v>4.2062206610035169</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2148537559874359</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>9.2376807634995295</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2148537559874359</v>
+        <v>9.2376807634995295</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11686,123 +11681,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9021615.2319283448</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>9032742.6801585779</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0886588608170484</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>2.0912350561819433</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0886588608170484</v>
-      </c>
-      <c r="I97" s="122">
+        <v>2.0912350561819433</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7778434534733649</v>
+        <v>2.7812697034768918</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>9021615.2319283448</v>
-      </c>
-      <c r="D100" s="109">
+        <v>9032742.6801585779</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7753600316944911</v>
-      </c>
-      <c r="E100" s="109">
+        <v>1.7775497977546517</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0886588608170484</v>
-      </c>
-      <c r="F100" s="109">
+        <v>2.0912350561819433</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.0886588608170484</v>
-      </c>
-      <c r="H100" s="109">
+        <v>2.0912350561819433</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0886588608170484</v>
-      </c>
-      <c r="I100" s="109">
+        <v>2.0912350561819433</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7778434534733649</v>
+        <v>2.7812697034768918</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11812,58 +11807,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19788643.897077207</v>
-      </c>
-      <c r="D103" s="109">
+        <v>19837664.265154041</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.894199270655065</v>
-      </c>
-      <c r="E103" s="122">
+        <v>3.9038459691658334</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5814109066530175</v>
-      </c>
-      <c r="F103" s="109">
+        <v>4.59275996372451</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.5814109066530175</v>
-      </c>
-      <c r="H103" s="122">
+        <v>4.59275996372451</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.5814109066530175</v>
-      </c>
-      <c r="I103" s="109">
+        <v>4.59275996372451</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0931167523159742</v>
+        <v>6.1082106024800975</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11873,58 +11868,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14405129.564502776</v>
-      </c>
-      <c r="D106" s="109">
+        <v>14435203.47265631</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.8347796511747783</v>
-      </c>
-      <c r="E106" s="122">
+        <v>2.8406978834602423</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.335034883735033</v>
-      </c>
-      <c r="F106" s="109">
+        <v>3.3419975099532264</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.335034883735033</v>
-      </c>
-      <c r="H106" s="122">
+        <v>3.3419975099532264</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.335034883735033</v>
-      </c>
-      <c r="I106" s="122">
+        <v>3.3419975099532264</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.4354801028946698</v>
+        <v>4.4447401529784951</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11933,15 +11928,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF453CE2-B811-46D3-9232-FD51ADC5FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D4636A-5B53-455D-B33E-E145F50C6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2885,7 +2899,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,6 +2942,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3400,11 +3417,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1848819524171726E-2</v>
+        <v>6.1064440791176337E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9464485814973626E-2</v>
+        <v>4.8837167605663999E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3833,11 +3850,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3851,10 +3868,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4076,8 +4093,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4090,8 +4110,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4134,60 +4154,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>7.33</v>
+        <v>7.42</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>4319334000</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>31660.718219999999</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>32049.458279999999</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4210,11 +4230,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4234,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4355,7 +4375,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4367,20 +4387,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>4.7844427762585302E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4389,12 +4409,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>4.7844427762585302E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4405,10 +4425,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.0677989446499247E-3</v>
       </c>
@@ -4417,7 +4437,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>30.85259184028892</v>
+        <v>31.248896409425434</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4449,7 +4469,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1848819524171726E-2</v>
+        <v>6.1064440791176337E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4468,10 +4488,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4479,22 +4499,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7775497977546517</v>
+        <v>1.7730211925018342</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.1984601589984254</v>
+        <v>3.1903115470747174</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0912350561819433</v>
-      </c>
-      <c r="G29" s="285">
+        <v>2.0859072852962757</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7812697034768918</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>2.7741839539780155</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5525,7 +5545,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7766,7 +7786,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9693,7 +9713,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10740,7 +10760,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10757,7 +10777,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10866,11 +10886,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10881,11 +10901,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10897,11 +10917,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11115,19 +11135,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11137,18 +11157,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11515,17 +11535,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2412187772637886E-2</v>
+        <v>3.2001130116658311E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2412187772637886E-2</v>
+        <v>3.2001130116658311E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2412187772637886E-2</v>
+        <v>3.2001130116658311E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11566,17 +11586,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1848819524171726E-2</v>
+        <v>6.1064440791176337E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1848819524171726E-2</v>
+        <v>6.1064440791176337E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1848819524171726E-2</v>
+        <v>6.1064440791176337E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11607,15 +11627,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11636,14 +11656,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2062206610035169</v>
+        <v>4.1955046107392757</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2062206610035169</v>
+        <v>4.1955046107392757</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11664,14 +11684,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2376807634995295</v>
+        <v>9.1984617936883435</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2376807634995295</v>
+        <v>9.1984617936883435</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11714,21 +11734,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9032742.6801585779</v>
+        <v>9009730.2582279034</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0912350561819433</v>
+        <v>2.0859072852962757</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0912350561819433</v>
+        <v>2.0859072852962757</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7812697034768918</v>
+        <v>2.7741839539780155</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11777,27 +11797,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>9032742.6801585779</v>
+        <v>9009730.2582279034</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7775497977546517</v>
+        <v>1.7730211925018342</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0912350561819433</v>
+        <v>2.0859072852962757</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.0912350561819433</v>
+        <v>2.0859072852962757</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0912350561819433</v>
+        <v>2.0859072852962757</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7812697034768918</v>
+        <v>2.7741839539780155</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11838,27 +11858,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19837664.265154041</v>
+        <v>19753442.610838637</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.9038459691658334</v>
+        <v>3.8872720236992184</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.59275996372451</v>
+        <v>4.573261204352022</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.59275996372451</v>
+        <v>4.573261204352022</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.59275996372451</v>
+        <v>4.573261204352022</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.1082106024800975</v>
+        <v>6.0822779324352974</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11899,27 +11919,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14435203.47265631</v>
+        <v>14381586.434533272</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.8406978834602423</v>
+        <v>2.8301466081005264</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.3419975099532264</v>
+        <v>3.3295842448241491</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.3419975099532264</v>
+        <v>3.3295842448241491</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.3419975099532264</v>
+        <v>3.3295842448241491</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.4447401529784951</v>
+        <v>4.4282309432066569</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D4636A-5B53-455D-B33E-E145F50C6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2F2C627-1F7F-48DF-8DA0-D8D2E397C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3417,11 +3417,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1064440791176337E-2</v>
+        <v>5.8750323924151332E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8837167605663999E-2</v>
+        <v>4.6986419251470866E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4164,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>7.42</v>
+        <v>7.7</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>32049.458279999999</v>
+        <v>33258.871800000001</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4254,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.248896409425434</v>
+        <v>32.479759380501612</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1064440791176337E-2</v>
+        <v>5.8750323924151332E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4499,20 +4499,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7730211925018342</v>
+        <v>1.7598246133626751</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.1903115470747174</v>
+        <v>3.1665660898925969</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0859072852962757</v>
+        <v>2.0703818980737356</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7741839539780155</v>
+        <v>2.753535730341389</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9664,7 +9664,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11535,17 +11535,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2001130116658311E-2</v>
+        <v>3.0788405427668419E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2001130116658311E-2</v>
+        <v>3.0788405427668419E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2001130116658311E-2</v>
+        <v>3.0788405427668419E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11586,17 +11586,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1064440791176337E-2</v>
+        <v>5.8750323924151332E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1064440791176337E-2</v>
+        <v>5.8750323924151332E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1064440791176337E-2</v>
+        <v>5.8750323924151332E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11656,14 +11656,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.1955046107392757</v>
+        <v>4.1642775115604991</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.1955046107392757</v>
+        <v>4.1642775115604991</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11684,14 +11684,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1984617936883435</v>
+        <v>9.0841205548373605</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1984617936883435</v>
+        <v>9.0841205548373605</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11734,21 +11734,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9009730.2582279034</v>
+        <v>8942670.9253344219</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0859072852962757</v>
+        <v>2.0703818980737356</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0859072852962757</v>
+        <v>2.0703818980737356</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7741839539780155</v>
+        <v>2.753535730341389</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11775,7 +11775,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11797,27 +11797,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>9009730.2582279034</v>
+        <v>8942670.9253344219</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7730211925018342</v>
+        <v>1.7598246133626751</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0859072852962757</v>
+        <v>2.0703818980737356</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.0859072852962757</v>
+        <v>2.0703818980737356</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0859072852962757</v>
+        <v>2.0703818980737356</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7741839539780155</v>
+        <v>2.753535730341389</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11858,27 +11858,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19753442.610838637</v>
+        <v>19507897.958879013</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.8872720236992184</v>
+        <v>3.8389513904336088</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.573261204352022</v>
+        <v>4.5164134005101282</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.573261204352022</v>
+        <v>4.5164134005101282</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.573261204352022</v>
+        <v>4.5164134005101282</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0822779324352974</v>
+        <v>6.0066723356052005</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11919,27 +11919,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14381586.434533272</v>
+        <v>14225284.442106718</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.8301466081005264</v>
+        <v>2.7993880018981421</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.3295842448241491</v>
+        <v>3.2933976492919319</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.3295842448241491</v>
+        <v>3.2933976492919319</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.3295842448241491</v>
+        <v>3.2933976492919319</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.4282309432066569</v>
+        <v>4.3801040329732945</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{118E8E0E-CA7D-4CCB-B6BF-C54A201E48F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{555746C5-61E6-4931-8B49-EDF98596A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3630,11 +3630,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5894409577445237E-2</v>
+        <v>5.5752904282675854E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4702360545447954E-2</v>
+        <v>4.458918964421308E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.08</v>
+        <v>8.1</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>34900.218719999997</v>
+        <v>34986.6054</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4467,7 +4467,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4598,7 +4598,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.139306578398255</v>
+        <v>34.225954847268788</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5894409577445237E-2</v>
+        <v>5.5752904282675854E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4717,20 +4717,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1772668555149552</v>
+        <v>1.7434491784392359</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.4953826700947128</v>
+        <v>3.1371007121827565</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.5614904182528888</v>
+        <v>2.0511166805167482</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.039463191386707</v>
+        <v>2.7279136627676146</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11767,17 +11767,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9291749019669688E-2</v>
+        <v>2.9217592451764699E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9291749019669688E-2</v>
+        <v>2.9217592451764699E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9291749019669688E-2</v>
+        <v>2.9217592451764699E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11818,17 +11818,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5894409577445237E-2</v>
+        <v>5.5752904282675854E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5894409577445237E-2</v>
+        <v>5.5752904282675854E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5894409577445237E-2</v>
+        <v>5.5752904282675854E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11881,21 +11881,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8957067398603611</v>
+        <v>4.1255282777585016</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8957067398603611</v>
+        <v>4.1255282777585016</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11916,14 +11916,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0251899886189193</v>
+        <v>8.9408344994563667</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0251899886189193</v>
+        <v>8.9408344994563667</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11966,21 +11966,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11063932.654233923</v>
+        <v>8859458.0161231291</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.5614904182528888</v>
+        <v>2.0511166805167482</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.5614904182528888</v>
+        <v>2.0511166805167482</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.039463191386707</v>
+        <v>2.7279136627676146</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12030,23 +12030,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1772668555149552</v>
+        <v>1.7434491784392359</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.5614904182528888</v>
+        <v>2.0511166805167482</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>2.5614904182528888</v>
+        <v>2.0511166805167482</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.5614904182528888</v>
+        <v>2.0511166805167482</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.039463191386707</v>
+        <v>2.7279136627676146</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12085,23 +12085,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4851887829874801</v>
+        <v>3.7783986711897306</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.2766926858676237</v>
+        <v>4.4451749072820359</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>5.2766926858676237</v>
+        <v>4.4451749072820359</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.2766926858676237</v>
+        <v>4.4451749072820359</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.2613207828797286</v>
+        <v>5.9119276236939635</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12140,23 +12140,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.3312278192512177</v>
+        <v>2.7609239248144832</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.9190915520602561</v>
+        <v>3.2481457938993921</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.9190915520602561</v>
+        <v>3.2481457938993921</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.9190915520602561</v>
+        <v>3.2481457938993921</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.6503919871332178</v>
+        <v>4.3199206432307893</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555746C5-61E6-4931-8B49-EDF98596A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCF1E79-6C54-4A9A-9A4B-3C0623A953BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4282,7 +4283,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4305,6 +4306,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4323,8 +4327,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4360,18 +4364,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4387,7 +4394,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
@@ -4416,11 +4423,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>34986.6054</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4443,11 +4450,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4515,10 +4522,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4565,7 +4572,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4706,10 +4713,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4717,22 +4724,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7434491784392359</v>
+        <v>1.9091488937454439</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.1371007121827565</v>
+        <v>3.5276383920353598</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0511166805167482</v>
-      </c>
-      <c r="G29" s="312">
+        <v>2.2460575220534635</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7279136627676146</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>3.067511645248139</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5714,15 +5721,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5750,7 +5758,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11877,7 +11885,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11888,14 +11896,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.1255282777585016</v>
+        <v>4.5176239405206724</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.1255282777585016</v>
+        <v>4.5176239405206724</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11916,14 +11924,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9408344994563667</v>
+        <v>9.7905832328757736</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9408344994563667</v>
+        <v>9.7905832328757736</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11966,21 +11974,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8859458.0161231291</v>
+        <v>9701472.620961275</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.0511166805167482</v>
+        <v>2.2460575220534635</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0511166805167482</v>
+        <v>2.2460575220534635</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7279136627676146</v>
+        <v>3.067511645248139</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12030,23 +12038,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7434491784392359</v>
+        <v>1.9091488937454439</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0511166805167482</v>
+        <v>2.2460575220534635</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>2.0511166805167482</v>
+        <v>2.2460575220534635</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.0511166805167482</v>
+        <v>2.2460575220534635</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.7279136627676146</v>
+        <v>3.067511645248139</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12085,23 +12093,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7783986711897306</v>
+        <v>4.1375026771292509</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4451749072820359</v>
+        <v>4.8676502083873538</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.4451749072820359</v>
+        <v>4.8676502083873538</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4451749072820359</v>
+        <v>4.8676502083873538</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9119276236939635</v>
+        <v>6.6479035165455196</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12140,23 +12148,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.7609239248144832</v>
+        <v>3.0233257854373474</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.2481457938993921</v>
+        <v>3.5568538652204085</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.2481457938993921</v>
+        <v>3.5568538652204085</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.2481457938993921</v>
+        <v>3.5568538652204085</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.3199206432307893</v>
+        <v>4.8577075808968289</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCF1E79-6C54-4A9A-9A4B-3C0623A953BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F93899F5-4EA9-4288-A31F-F40D15561661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3631,11 +3631,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5752904282675854E-2</v>
+        <v>5.6168970732546571E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.458918964421308E-2</v>
+        <v>4.4921944790811685E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4364,27 +4364,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.1</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4394,40 +4394,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>4319334000</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>34986.6054</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>34727.445359999998</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4450,11 +4450,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4605,7 +4605,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.225954847268788</v>
+        <v>33.97242925580754</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5752904282675854E-2</v>
+        <v>5.6168970732546571E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4713,10 +4713,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4724,22 +4724,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9091488937454439</v>
+        <v>2.1350026825056969</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.5276383920353598</v>
+        <v>3.7065478939324437</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2460575220534635</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.5117678617714083</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.067511645248139</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>3.2230851251586468</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5722,15 +5722,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11103,7 +11103,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11114,11 +11114,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11130,11 +11130,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11775,17 +11775,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9217592451764699E-2</v>
+        <v>2.9435634186479362E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9217592451764699E-2</v>
+        <v>2.9435634186479362E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9217592451764699E-2</v>
+        <v>2.9435634186479362E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11826,17 +11826,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5752904282675854E-2</v>
+        <v>5.6168970732546571E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5752904282675854E-2</v>
+        <v>5.6168970732546571E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5752904282675854E-2</v>
+        <v>5.6168970732546571E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11889,21 +11889,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5176239405206724</v>
+        <v>4.3930976887873276</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5176239405206724</v>
+        <v>4.3930976887873276</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11924,14 +11924,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.7905832328757736</v>
+        <v>9.2881828507055584</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.7905832328757736</v>
+        <v>9.2881828507055584</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11974,21 +11974,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9701472.620961275</v>
+        <v>10849164.325456545</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2460575220534635</v>
+        <v>2.5117678617714083</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2460575220534635</v>
+        <v>2.5117678617714083</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.067511645248139</v>
+        <v>3.2230851251586468</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12038,23 +12038,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9091488937454439</v>
+        <v>2.1350026825056969</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.2460575220534635</v>
+        <v>2.5117678617714083</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>2.2460575220534635</v>
+        <v>2.5117678617714083</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.2460575220534635</v>
+        <v>2.5117678617714083</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.067511645248139</v>
+        <v>3.2230851251586468</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12093,23 +12093,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.1375026771292509</v>
+        <v>4.5139663869695879</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.8676502083873538</v>
+        <v>5.3105486905524559</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.8676502083873538</v>
+        <v>5.3105486905524559</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.8676502083873538</v>
+        <v>5.3105486905524559</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.6479035165455196</v>
+        <v>6.8144635304311736</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12148,23 +12148,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.0233257854373474</v>
+        <v>3.3244845347376426</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.5568538652204085</v>
+        <v>3.9111582761619319</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.5568538652204085</v>
+        <v>3.9111582761619319</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.5568538652204085</v>
+        <v>3.9111582761619319</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.8577075808968289</v>
+        <v>5.01877432779491</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEC9F5F-92DA-4FE0-9905-180ECFA9E1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3727275-79BD-48AA-8CBD-8181E4469D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3654,11 +3654,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6167212588277025E-2</v>
+        <v>5.8833470630149043E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4920538689564318E-2</v>
+        <v>4.7052917029294705E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4392,27 +4392,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.0399999999999991</v>
+        <v>7.68</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4422,7 +4422,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
@@ -4451,11 +4451,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>34727.445359999998</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>33172.485119999998</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4478,11 +4478,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.973492659687949</v>
+        <v>32.433857192934539</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6167212588277025E-2</v>
+        <v>5.8833470630149043E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4741,10 +4741,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4752,22 +4752,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1527192800204746</v>
+        <v>2.1656609495601122</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.7442311714156267</v>
+        <v>3.7667406564888557</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.5326109176711467</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.5478364112471912</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2558531925353278</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>3.2754266578163964</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5750,15 +5750,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11905,17 +11905,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.943471282205181E-2</v>
+        <v>3.083197888094057E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.943471282205181E-2</v>
+        <v>3.083197888094057E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.943471282205181E-2</v>
+        <v>3.083197888094057E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11956,17 +11956,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6167212588277025E-2</v>
+        <v>5.8833470630149043E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6167212588277025E-2</v>
+        <v>5.8833470630149043E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6167212588277025E-2</v>
+        <v>5.8833470630149043E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12026,14 +12026,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4295523238250691</v>
+        <v>4.4561818072489059</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4295523238250691</v>
+        <v>4.4561818072489059</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12054,14 +12054,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.3652288631091931</v>
+        <v>9.465533202443261</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.3652288631091931</v>
+        <v>9.465533202443261</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12104,21 +12104,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10939192.445468185</v>
+        <v>11004956.437537976</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.5326109176711467</v>
+        <v>2.5478364112471912</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.5326109176711467</v>
+        <v>2.5478364112471912</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.2558531925353278</v>
+        <v>3.2754266578163964</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12168,23 +12168,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1527192800204746</v>
+        <v>2.1656609495601122</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.5326109176711467</v>
+        <v>2.5478364112471912</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>2.5326109176711467</v>
+        <v>2.5478364112471912</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.5326109176711467</v>
+        <v>2.5478364112471912</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.2558531925353278</v>
+        <v>3.2754266578163964</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12223,23 +12223,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5514099984735994</v>
+        <v>4.6001569303007201</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.3545999982042352</v>
+        <v>5.4119493297655534</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.3545999982042352</v>
+        <v>5.4119493297655534</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3545999982042352</v>
+        <v>5.4119493297655534</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.8837227926562452</v>
+        <v>6.9574494764318109</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12278,23 +12278,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.352064639247037</v>
+        <v>3.3829089399304162</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.9436054579376911</v>
+        <v>3.9798928705063723</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.9436054579376911</v>
+        <v>3.9798928705063723</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.9436054579376911</v>
+        <v>3.9798928705063723</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>5.0697879925957867</v>
+        <v>5.1164380671241041</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0220.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0220.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3727275-79BD-48AA-8CBD-8181E4469D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C90186C-C8E9-47E8-AAA8-92776FEBBD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3654,11 +3654,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8833470630149043E-2</v>
+        <v>5.9679958717712499E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7052917029294705E-2</v>
+        <v>4.7729908091079853E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4392,27 +4392,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0220.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.68</v>
+        <v>7.55</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4422,40 +4422,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>统一中国</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>4319334000</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>33172.485119999998</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>32610.971699999998</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4478,11 +4478,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.433857192934539</v>
+        <v>31.973822126934987</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8833470630149043E-2</v>
+        <v>5.9679958717712499E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4741,10 +4741,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4752,22 +4752,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1656609495601122</v>
+        <v>2.1633543236759794</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.7667406564888557</v>
+        <v>3.7627287350942167</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.5478364112471912</v>
-      </c>
-      <c r="G29" s="314">
+        <v>2.5451227337364464</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2754266578163964</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>3.2719380305167105</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5750,15 +5750,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11233,7 +11233,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11244,11 +11244,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11260,11 +11260,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11905,17 +11905,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.083197888094057E-2</v>
+        <v>3.1275585259404833E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.083197888094057E-2</v>
+        <v>3.1275585259404833E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.083197888094057E-2</v>
+        <v>3.1275585259404833E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11956,17 +11956,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8833470630149043E-2</v>
+        <v>5.9679958717712499E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8833470630149043E-2</v>
+        <v>5.9679958717712499E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8833470630149043E-2</v>
+        <v>5.9679958717712499E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12026,14 +12026,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4561818072489059</v>
+        <v>4.4514355683221289</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4561818072489059</v>
+        <v>4.4514355683221289</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12054,14 +12054,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.465533202443261</v>
+        <v>9.469413874360912</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.465533202443261</v>
+        <v>9.469413874360912</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12104,21 +12104,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11004956.437537976</v>
+        <v>10993235.15800078</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.5478364112471912</v>
+        <v>2.5451227337364464</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.5478364112471912</v>
+        <v>2.5451227337364464</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.2754266578163964</v>
+        <v>3.2719380305167105</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12168,23 +12168,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1656609495601122</v>
+        <v>2.1633543236759794</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.5478364112471912</v>
+        <v>2.5451227337364464</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>2.5478364112471912</v>
+        <v>2.5451227337364464</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.5478364112471912</v>
+        <v>2.5451227337364464</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.2754266578163964</v>
+        <v>3.2719380305167105</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12223,23 +12223,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.6001569303007201</v>
+        <v>4.6020428990501197</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.4119493297655534</v>
+        <v>5.4141681165295523</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.4119493297655534</v>
+        <v>5.4141681165295523</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.4119493297655534</v>
+        <v>5.4141681165295523</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.9574494764318109</v>
+        <v>6.9603018861401935</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12278,23 +12278,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.3829089399304162</v>
+        <v>3.3826986113630495</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.9798928705063723</v>
+        <v>3.9796454251329996</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.9798928705063723</v>
+        <v>3.9796454251329996</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.9798928705063723</v>
+        <v>3.9796454251329996</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>5.1164380671241041</v>
+        <v>5.1161199583284525</v>
       </c>
       <c r="K106" s="75"/>
     </row>
